--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\Documents\Insper\2°Semestre\Dados\Projetos\Projeto 2\Projeto-2-Dados\Projeto-2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_3EC4DCB526EAA73B6F503D6B097832E5E866A30E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E5110AF4-7F7A-2740-AD7B-676093077C4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9370C-9782-4C12-989D-C76B7302AD5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23500" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1274,6 +1274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1615,13 +1616,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y301" sqref="Y301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1957,1303 +1958,1757 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y292">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Y300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>78</v>
+      </c>
+      <c r="Y301" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3263,1009 +3718,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>361</v>
       </c>

--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\Documents\Insper\2°Semestre\Dados\Projetos\Projeto 2\Projeto-2-Dados\Projeto-2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9370C-9782-4C12-989D-C76B7302AD5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F5F751-D0C6-45FF-B33E-CD9108E1C162}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,6 +1224,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1274,7 +1282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1616,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y301" sqref="Y301"/>
     </sheetView>
   </sheetViews>

--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\Documents\Insper\2°Semestre\Dados\Projetos\Projeto 2\Projeto-2-Dados\Projeto-2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F5F751-D0C6-45FF-B33E-CD9108E1C162}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90910B-FB2A-4219-8BD6-B78632DE5F09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y301"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y301" sqref="Y301"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y302" sqref="Y302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,6 +3711,11 @@
         <v>78</v>
       </c>
       <c r="Y301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y302">
         <v>0</v>
       </c>
     </row>

--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{3A90910B-FB2A-4219-8BD6-B78632DE5F09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B37E985B-C531-D949-AA38-CED2CD0D729C}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="11_4A969315AC4391A4FA170B2527FAFD45E12C5422" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5676A814-D734-3F4C-AE75-E7C47666EC22}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27520" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>íris!! alguém ta a mudar a música dos airpods, já mudou duas vezes
+*iris chocada*
+íris! parou a música 
+i- ahhh tas a tocar de lado nos airpods</t>
+  </si>
+  <si>
+    <t>ain ganhei um airpods 🤪</t>
+  </si>
+  <si>
+    <t>só queria tomar banho com meu airpods o resto fodase</t>
+  </si>
+  <si>
+    <t>quase infartei achando que eu tinha comprado um airpods no cartão</t>
+  </si>
+  <si>
+    <t>@vivenancius eu tenho um noise cancelling desses enormes. é legal mas esquenta a orelha. os airpods são muito convenientes mas não tem o som tão bom quanto os grandes da sony.</t>
+  </si>
+  <si>
+    <t>ganhei um airpods 😍</t>
+  </si>
+  <si>
+    <t>comprei airpods na 25 de março e agora to me achando kkk!</t>
+  </si>
+  <si>
+    <t>@castelasforyou airpods da para substituir por outros wireless. se eu tivesse money usava a campanha da apple para comprar o ipad com a canetinha e eles davam uns beats wireless em relação ao apple watch acredito que de mais jeito a ti que a mim que não faço nenhum</t>
+  </si>
+  <si>
+    <t>eu ia comprar um fone novo né kkkk, aí ganhei um airpods 🤪🤪 quase comprei um fone novo, ufa que não comprei</t>
+  </si>
+  <si>
+    <t>@wakaya__ fds queria muito, o meu pc é um calhamaço esquece não dá jeito nenhum 
+perfeito era ter o combo completo:iphone,airpods,applewatch(o meu primo tem e pqp aquilo da mt jeito) e ipad</t>
+  </si>
+  <si>
+    <t>melhor coisa de ter airpods é q posso ficar ouvindo musica sem ninguém saber, tipo agora na palestra de adm 🤪</t>
+  </si>
+  <si>
+    <t>droga esqueci de colocar meu airpods pra carregar</t>
+  </si>
+  <si>
+    <t>@_silvaleo entao, eu tava pensando em usar mais pra correr ou sair a noite por aí. eu tenho fones apple com fio, os airpods nao sao a msm coisa mas sem fio amiga? ou eh diferente? o diferencial da sony pra mim seria o noise cancelling</t>
+  </si>
+  <si>
+    <t>@bielzinho110520 nem, e ainda me deu um fone airpods kkkkk</t>
+  </si>
+  <si>
+    <t>to tao triste será q alguém pode me dar um airpods?</t>
+  </si>
+  <si>
+    <t>eu perdi a caixinha do meu airpods velho, eu to mto triste</t>
+  </si>
+  <si>
+    <t>@fcondemartins quanto a saturação de iphones (e smartphones em geral) está no máximo e upgrades estão menos frequentes, nada como vender “add-ons” a essas pessoas.
+eu fiquei rendido aos airpods e vejo-me a comprar um apple watch no futuro. ao que parece funciona</t>
+  </si>
+  <si>
+    <t>eu 🤝 jisung
+únicos pobres que não tem airpods https://t.co/mknqa5ndhx</t>
+  </si>
+  <si>
+    <t>@henriquemm @sennheiserbr eh um airpods aqui</t>
+  </si>
+  <si>
+    <t>@perinazzoo fone airpods duplo led soltando teia 3.0 25gb duplo misto quente incrível mesmo</t>
+  </si>
+  <si>
+    <t>olho para os novos earbuds da huawei e só vejo os airpods da apple!</t>
+  </si>
+  <si>
+    <t>@vivenancius eu adoro os airpods, me surpreenderam</t>
+  </si>
+  <si>
+    <t>putaria mesmo é quando o celular e os airpods descarregam ao mesmo tempo.</t>
+  </si>
+  <si>
+    <t>quero comprar os airpods 🙄</t>
+  </si>
+  <si>
+    <t>airpods tinha q ter localizador, perco toda hora pqp</t>
+  </si>
+  <si>
+    <t>não acredito que perdi um dos lados dos airpods ya 😔😔😔</t>
+  </si>
+  <si>
+    <t>huawei incorpora cancelamento ativo de ruídos em seus “clones” dos airpods https://t.co/7c0trtjqne</t>
+  </si>
+  <si>
+    <t>to triste perdi meu airpods</t>
+  </si>
+  <si>
+    <t>@ikurvzc acabaste mesmo só falta os airpods e os sapatos mocassim 😕</t>
+  </si>
+  <si>
+    <t>@vivenancius completamente apaixonado pelos airpods</t>
+  </si>
+  <si>
+    <t>@letyleald compra airpods</t>
+  </si>
+  <si>
+    <t>a um dia do novo evento da apple, recupero este gráfico da @qz. tempos interessantes em que o lucro da empresa passa cada vez mais pelos wearables, como o apple watch e airpods, e não pelo iphone. https://t.co/j9dyurrh3p</t>
+  </si>
+  <si>
+    <t>amigas estou pensando em fazer uma loucurinha e investir em bons fones de ouvido. to namorando um da sony com noise cancelling mas pensando tbm em airpods. vcs gostam dos airpods?</t>
+  </si>
+  <si>
+    <t>andre roubou meu telefone e meu airpods p escutar iron maiden, grande dia 👍</t>
+  </si>
+  <si>
+    <t>será que a apple esqueceu de enviar o meu airpods? um século pra chegar</t>
+  </si>
+  <si>
+    <t>meus airpods chegaram 😍😍🤩🤪</t>
+  </si>
+  <si>
+    <t>ok mas realmente uns airpods faziam mt jeito ://</t>
+  </si>
+  <si>
+    <t>meu padrasto mora do outro lado do mundo e me mandou um airpods</t>
+  </si>
+  <si>
+    <t>eu desisti do povo da minha sala quando a menina confundiu a caixa do meu airpods com um apontador</t>
+  </si>
+  <si>
+    <t>compra airpods n vale a pena</t>
+  </si>
+  <si>
+    <t>eu vou voltar a ter meus dois lados do airpods ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>os airpods https://t.co/tvgijvfusc</t>
+  </si>
+  <si>
+    <t>hyuck e seus airpods vermelhos combinando com a blusa https://t.co/kr0hjwfu6w</t>
+  </si>
+  <si>
+    <t>perdi os  airpods,e hoje um senhor deu-me juro que fiquei feliz</t>
+  </si>
+  <si>
+    <t>n vo conseguir um airpods nunca?!)72!:72!:?2</t>
+  </si>
+  <si>
+    <t>quem tem airpods... vale a pena? to quase comprando aqui hahahha</t>
+  </si>
+  <si>
+    <t>meu fone de ouvido tá estragando de um lado
+alguém me dá um airpods ♥️</t>
+  </si>
+  <si>
+    <t>@williansoaresbb já trás os airpods pra eu viu? de presente ♥️</t>
+  </si>
+  <si>
+    <t>puto miguel falhaste nos airpods</t>
+  </si>
+  <si>
+    <t>saudades dos meus airpods... né @analu_bhaeffner</t>
+  </si>
+  <si>
+    <t>o tanto de dinheiro q eu gasto com fone dava p ter comprado um airpods já</t>
   </si>
   <si>
     <t>@fesantossp bem vindo ao mundo incrível de airpods do qual você nunca mais sairá.
@@ -79,9 +239,6 @@
     <t>perdi meus airpods de novokkkkkkkkkkkk rindo de nervoso pq dessa vez eu não sei se eu vou achar</t>
   </si>
   <si>
-    <t>rt @bystpt: #zémouras nem dinheiro para uns airpods já tem #thecriseisreal :/ https://t.co/ghqfbwzdjf</t>
-  </si>
-  <si>
     <t>queria tanto os airpods..............</t>
   </si>
   <si>
@@ -100,6 +257,9 @@
     <t>preciso de airpods 🥵</t>
   </si>
   <si>
+    <t>alguém que me compre uns airpods por favor🥺🥺</t>
+  </si>
+  <si>
     <t>andava já há muito tempo a pensar comprar uns airpods e finalmente comprei</t>
   </si>
   <si>
@@ -109,10 +269,16 @@
     <t>sou mt irresponsável p ter airpods toda hora é um infarto diferente achando que perdi essa merda</t>
   </si>
   <si>
-    <t>rt @fcondemartins: como é que a @apple lucra com cada vez menos utilizadores a mudarem anualmente de iphone? a resposta está nos serviços e…</t>
-  </si>
-  <si>
-    <t>atopei uns airpods do chino tiraos por compostela jajá</t>
+    <t>huawei lança rival dos airpods com cancelamento de ruído. portugal incluído https://t.co/ev8oxbo8a9 https://t.co/utootbtjhk</t>
+  </si>
+  <si>
+    <t>huawei lança rival dos airpods com cancelamento de ruído. portugal incluído https://t.co/txvscu4l2d https://t.co/ypq6l5oqjs</t>
+  </si>
+  <si>
+    <t>huawei lança rival dos airpods com cancelamento de ruído. portugal incluído https://t.co/ctc2vlxgf9 https://t.co/wgyo6rpgqm</t>
+  </si>
+  <si>
+    <t>huawei aposta em anti-airpods com cancelamento de ruído. portugal está incluído https://t.co/fxpftis0fd https://t.co/3xcalpzd4p</t>
   </si>
   <si>
     <t>me controlando pra não comprar um airpods</t>
@@ -121,18 +287,15 @@
     <t>o fdp do meu sobrinho fez o favor de quebrar meus airpods e eu só não quebro os dedos dele pq não posso</t>
   </si>
   <si>
-    <t>rt @gabyyh27270970: to so com iphone e airpods rlx q daqui uns dias do postando foto com o coleção completa https://t.co/obpzn6pb3f</t>
-  </si>
-  <si>
-    <t>rt @maduzerafelix: um airpods é com ctz o meu sonho de princesa</t>
+    <t>um airpods é com ctz o meu sonho de princesa</t>
+  </si>
+  <si>
+    <t>to so com iphone e airpods rlx q daqui uns dias do postando foto com o coleção completa https://t.co/obpzn6pb3f</t>
   </si>
   <si>
     <t>@renjunakes mas é mais barato e vai resolver o problema por um tempo até tu conseguir dinheiro para comprar o airpods</t>
   </si>
   <si>
-    <t>rt @danielsatann: só queria mostrar os meus airpods o meu iphone e o meu apple watch tutupom! https://t.co/2tk9ybdqhn</t>
-  </si>
-  <si>
     <t>@renjunakes eh mona compre um airpods</t>
   </si>
   <si>
@@ -140,6 +303,9 @@
   </si>
   <si>
     <t>mas aí tu vai ter que tirar os airpods para carregar https://t.co/syapasg7kj</t>
+  </si>
+  <si>
+    <t>só queria mostrar os meus airpods o meu iphone e o meu apple watch tutupom! https://t.co/2tk9ybdqhn</t>
   </si>
   <si>
     <t>meu irmão me dizendo aqui que tá esperando o dólar baixar pra comprar um airpods kkkkkkkk
@@ -147,10 +313,7 @@
 aí ele veio dizer+</t>
   </si>
   <si>
-    <t>rt @wibson_carfer: medo de comprar esses airpods e ser roubado 🥺 mundo tóxico</t>
-  </si>
-  <si>
-    <t>rt @ntsayt: tenho um vizinho que toda vez que lhe vejo está com airpods.. vcs , sempreeeeeeee lhe vejo com a cena .. afinal usa smart kicka…</t>
+    <t>medo de comprar esses airpods e ser roubado 🥺 mundo tóxico</t>
   </si>
   <si>
     <t>obrigado vc mateus_henrique06 por mais uma compra. aproveite o fone. 
@@ -165,20 +328,10 @@
     <t>meu airpods caiu no estacionamento da ufam</t>
   </si>
   <si>
-    <t>rt @rosshenrique15: preciso de um lindo par de airpods</t>
-  </si>
-  <si>
     <t>nao consigo confiar mais no gui no momento em q tamos a ouvir música nos airpods e ele mete justin bieber e gailo é o troco</t>
   </si>
   <si>
-    <t>rt @bronx_027: eletrônicos e acessórios como: caixinhas jbl.
-fones bluetooth. eletrônicos de suporte para jogos. fones airpods tws i9s. rel…</t>
-  </si>
-  <si>
     <t>@ntsayt presumo que são auricular do iphone que quebraram os fios, aí ficou tipo airpods! eu aqui procurando ele já tem que né acaba carga!😹😹😹😹</t>
-  </si>
-  <si>
-    <t>rt @jaomanelalves: aposto que estes cães têm airpods https://t.co/vukwectots</t>
   </si>
   <si>
     <t>@sofyanejr nul les airpods c d l’arnaque</t>
@@ -218,21 +371,20 @@
     <t>ca a des airpods mais ca a des iphone 5</t>
   </si>
   <si>
-    <t>rt @tec_mundo: os novos fones de ouvido da huawei foram desenvolvido para dispositivos com menor consumo de energia https://t.co/aadczuo0gk…</t>
+    <t>os novos fones de ouvido da huawei foram desenvolvido para dispositivos com menor consumo de energia https://t.co/aadczuo0gk #tecmundo</t>
   </si>
   <si>
     <t>airpods foi a melhor invencao feito atualmente</t>
   </si>
   <si>
+    <t>eletrônicos e acessórios como: caixinhas jbl.
+fones bluetooth. eletrônicos de suporte para jogos. fones airpods tws i9s. relógios inteligentes. acessórios para computador e celular. caixinha bluetooth para banheiro aprova de água.. vem com a bronx 🇧🇷✈ mais coisas no instagram. https://t.co/lbjzitpjw5</t>
+  </si>
+  <si>
     <t>queria q deus tocasse no coração da minha mãe pra ela comprar meu airpods e um moletom pelamodi deus 😫😫😫</t>
   </si>
   <si>
     <t>vou ter que vender minha camiseta da prada pra comprar airpods</t>
-  </si>
-  <si>
-    <t>rt @btsnotice: [🎬] - a apple korea adicionou os airpods do #bt21 em seu vídeo promocional. 🎵
- #pcas #bts #thegroup
-🖇https://t.co/dxzbhqktm…</t>
   </si>
   <si>
     <t>@mypereira1 comprou meu airpods n podia estar mais feliz</t>
@@ -316,6 +468,9 @@
     <t>o que jaemin não esperava era que o tal  zc2211 fosse chenle o menino transferido e mais problemático da escola que estava sempre com cara de poucos amigos sendo seguido se suas vestes pretas e seus inseparáveis airpods ou também aquele por quem jaemin tinha um certo "crush"</t>
   </si>
   <si>
+    <t>preciso de um lindo par de airpods</t>
+  </si>
+  <si>
     <t>é da maneira q compro uns airpods 😭</t>
   </si>
   <si>
@@ -325,10 +480,6 @@
     <t>os fones concorrente dos airpods são todos quadradões, puts</t>
   </si>
   <si>
-    <t>rt @mandellivaleria: antes de dormir coloquei meus airpods e meu celular em cima do armario q tem atras da minha cama
-acordei agora e tava…</t>
-  </si>
-  <si>
     <t>so um airpods agora</t>
   </si>
   <si>
@@ -341,9 +492,6 @@
     <t>achei o boy daí fomos pra um quarto lá q só tinha 4 pessoas, elas estavam dormindo daí tá pedi pra pegar a camisinha (que era uma capinha de airpods?¿) skdkdkkdkdkdkkdkd que crl que minha cabeça tá maquinando?</t>
   </si>
   <si>
-    <t>rt @tec_mundo: o freebuds 2 pro ainda conta com uma tecnologia diferente de identificação biométrica, que considera o padrão ósseo do usuár…</t>
-  </si>
-  <si>
     <t>airpods uma das melhores coisas inventadas</t>
   </si>
   <si>
@@ -371,7 +519,7 @@
     <t>jogador do santos com um airpods</t>
   </si>
   <si>
-    <t>rt @darkcressworth: eu nem preciso usar fone porque eu to no meu quarto posso botar música se quiser mas to muito animada com esses airpods</t>
+    <t>eu nem preciso usar fone porque eu to no meu quarto posso botar música se quiser mas to muito animada com esses airpods</t>
   </si>
   <si>
     <t>pegadinha de youtuber gringo: cortando os fio do fone de ouvido das pessoas estranhas no susto… e dando airpods pra substituir. 🤔🤨 
@@ -413,7 +561,7 @@
     <t>queria ter um airpods porem minha mae disse que eu ia perder e ela ta certa</t>
   </si>
   <si>
-    <t>rt @mekieppl: se eu tivesse airpods essa shit durava uma semana cmg</t>
+    <t>se eu tivesse airpods essa shit durava uma semana cmg</t>
   </si>
   <si>
     <t>tou-me a sentir muito merda por não saber dos airpods fds sou um lixo humano</t>
@@ -437,9 +585,6 @@
     <t>queria um airpods</t>
   </si>
   <si>
-    <t>rt @larinhacri002: os airpods foram a melhor compra que já fiz</t>
-  </si>
-  <si>
     <t>meu sonho de princesa: airpods</t>
   </si>
   <si>
@@ -455,10 +600,11 @@
     <t>comprei uma capa de airpods e nem tenho airpods</t>
   </si>
   <si>
+    <t>tenho um vizinho que toda vez que lhe vejo está com airpods.. vcs , sempreeeeeeee lhe vejo com a cena .. afinal usa smart kicka 😭 
+flex afinal é isso ?</t>
+  </si>
+  <si>
     <t>perdi o outro lado do meu airpods lek vtnc 🖕🏿🖕🏿</t>
-  </si>
-  <si>
-    <t>receber a guita do bote e pegar airpods e ténis 🥰</t>
   </si>
   <si>
     <t>bem vou arrumar a cozinha meter os airpods e começar a curtir me p logo kkk</t>
@@ -494,9 +640,6 @@
   <si>
     <t>antes de dormir coloquei meus airpods e meu celular em cima do armario q tem atras da minha cama
 acordei agora e tava tudo em cima da cama ???????</t>
-  </si>
-  <si>
-    <t>rt @bbrucruz: só queria um airpods nada mais 🤧🤧</t>
   </si>
   <si>
     <t>a huawei já apresentou o seu novo modelo de auriculares bluetooth para concorrer com os airpods 👇 
@@ -504,18 +647,7 @@
 #huawei #freebuds3 #blog https://t.co/20gfnhdpti</t>
   </si>
   <si>
-    <t>rt @jniorda60814377: for sales
-super promo 🔥🔥🔥🔥
-airpods apple 🍏 
-- selado 
-preço : 10.500mts
-ligue/sms : 842120143 https://t.co/0byym8k6…</t>
-  </si>
-  <si>
-    <t>mt indecisa se compro os airpods ou não</t>
-  </si>
-  <si>
-    <t>rt @jniorda60814377: bom dia . peço para me ajudarem a compartilhar até chegar aos interessados pelos  airpods apple🙏🏽 https://t.co/r94pqs0…</t>
+    <t>bom dia . peço para me ajudarem a compartilhar até chegar aos interessados pelos  airpods apple🙏🏽 https://t.co/r94pqs0sjq</t>
   </si>
   <si>
     <t>achei o airpods que eu tonha perdido depois de 1 hora e meia eu me amo</t>
@@ -552,12 +684,12 @@
     <t>qro um airpods</t>
   </si>
   <si>
-    <t>rt @analuu_muniz: “perdi 50% da minha postura de bandido mau” disse lucas, o filho único, com seus airpods, jaquetinha north face padrão co…</t>
-  </si>
-  <si>
     <t>nao vo negar q eu queria sim te um airpods não aguento mais ir dormir escutando asmr e acordar sendo enforcada pelo fio do fone de ouvido</t>
   </si>
   <si>
+    <t>o freebuds 2 pro ainda conta com uma tecnologia diferente de identificação biométrica, que considera o padrão ósseo do usuário por meio de ia https://t.co/vuqcwimk58 #tecmundo</t>
+  </si>
+  <si>
     <t>@bazzisoul só não comprei nem os airpods nem um celular novo, e me arrependo imensamente</t>
   </si>
   <si>
@@ -585,9 +717,6 @@
     <t>perdi meus airpods kkkkkkk nao sei onde soquei</t>
   </si>
   <si>
-    <t>rt @profquinho_: quero uns airpods</t>
-  </si>
-  <si>
     <t>quero uns airpods</t>
   </si>
   <si>
@@ -631,12 +760,6 @@
   </si>
   <si>
     <t>eu não tô acreditando que os airpods carregam 100% em 10 minutos!!!! caralho que perfeição</t>
-  </si>
-  <si>
-    <t>rt @saints_671: airpods das melhores compras mesmo</t>
-  </si>
-  <si>
-    <t>rt @luisantonionet1: huawei apresenta o freebuds 3, seu novo concorrente para os airpods https://t.co/112ayzuty1 https://t.co/w3csv0rrax</t>
   </si>
   <si>
     <t>mds sai de casa e deixei o meu airpods carregando mas so volto amanha e agora</t>
@@ -671,9 +794,6 @@
   </si>
   <si>
     <t>comprei meu ipad, meu airpods, e meus cremes/loção da victoria secret, agora sim tô feliz com as compras</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
   <si>
     <t>[#info] 19.09.07 | a apple korea postou em seu canal no youtube o vídeo promocional com os airpods do #bt21.
@@ -717,9 +837,6 @@
     <t>airpods salva muito pra ouvir música arrumando a casa</t>
   </si>
   <si>
-    <t>https://t.co/ppt1htu4h6 huawei apresenta o freebuds 3, seu novo concorrente para os airpods https://t.co/oeygyjhubx https://t.co/whxihnulup</t>
-  </si>
-  <si>
     <t>feliz q agr tenho +2 carregadores novos pq do cel e dos airpods</t>
   </si>
   <si>
@@ -780,12 +897,6 @@
     <t>airpods neta me cagué https://t.co/lldx2th4p3</t>
   </si>
   <si>
-    <t>rt @yanflorencio: quero um apple watch e um airpods.  onde posso ofertar meus órgãos?</t>
-  </si>
-  <si>
-    <t>rt @pcworldbrasil: funcionários do metrô não aguentam mais recolher airpods perdidos - https://t.co/wal6h7xxts https://t.co/4vm1xcoqzo</t>
-  </si>
-  <si>
     <t>@luizavrosani achei que tinha perdido meu airpods, mas acho q ta no quarto dos meus pais mesmo</t>
   </si>
   <si>
@@ -844,17 +955,10 @@
     <t>eu descobri o meu amor por airpods ❤️ não quero outro vida</t>
   </si>
   <si>
-    <t>rt @taengbr: [#taengstory] 06/09/19 - p: "tmi de hoje? 🤘🏻"
-ty: "eu comprei airpods e perdi em um dia" https://t.co/nexnwnrb7f</t>
-  </si>
-  <si>
     <t>vendi o airpods</t>
   </si>
   <si>
     <t>comprei um airpods</t>
-  </si>
-  <si>
-    <t>rt @enriquejimenez: vcs tbm confundem a costeleta do cid moreira com um par de airpods? #jornalnacional #jn50anos https://t.co/qwcjqdrfze</t>
   </si>
   <si>
     <t>finalmente comprei meus airpods glória na verdade é os primo mas vale kkk</t>
@@ -880,7 +984,7 @@
     <t>quem quiser eu to tendo airpods primeira e segunda geração lacrad oi na caixa vem direct</t>
   </si>
   <si>
-    <t>rt @jotta_miguel: o puto com os airpods é mauuuuuuu! https://t.co/ydz0mskl0o</t>
+    <t>Teste</t>
   </si>
   <si>
     <t>com toda certeza vou roubar os airpods da duda, ainda mais que to sem fone agora</t>
@@ -892,17 +996,13 @@
     <t>o som do airpods é uma bosta! #fato</t>
   </si>
   <si>
+    <t>a criança com airpods e rolex isso que eu chamo de flex https://t.co/ujxts5rh9o</t>
+  </si>
+  <si>
     <t>o airpods liga com o mac tudo pra mim caralhooooo</t>
   </si>
   <si>
     <t>compro airpods ou não</t>
-  </si>
-  <si>
-    <t>rt @chollosdehogar: 🛒 funda protectora para auriculares airpods
-⛔️ antes: ❌12,30€❌
-💶 precio oferta: 🔥3,69€🔥
-💰 ahórrate: 70%
-🏷 código dto.:…</t>
   </si>
   <si>
     <t>huawei apresenta o freebuds 3, seu novo concorrente para os airpods https://t.co/icne1pecbb</t>
@@ -955,11 +1055,6 @@
     <t>huawei freebuds 3 são oficiais e vêm para combater diretamente com os airpods https://t.co/0gwdvhneeb https://t.co/ydxaqeyizz</t>
   </si>
   <si>
-    <t>rt @henrivaladasc: henrique contente, 34 anos;
-desempregado;
-quer comprar airpods. https://t.co/9cxtt8ps37</t>
-  </si>
-  <si>
     <t>huawei apresenta o freebuds 3, seu novo concorrente para os airpods https://t.co/c1bybtotwf</t>
   </si>
   <si>
@@ -967,9 +1062,6 @@
   </si>
   <si>
     <t>huawei apresenta o freebuds 3, seu novo concorrente para os airpods https://t.co/vfku0qcqht</t>
-  </si>
-  <si>
-    <t>rt @anarita1201: preciso mm de uns airpods</t>
   </si>
   <si>
     <t>vende se airpods 
@@ -1052,15 +1144,9 @@
     <t>huawei incorpora cancelamento ativo de ruídos em seus “clones” dos airpods https://t.co/kzay38ryxq https://t.co/fsyknwm4pw</t>
   </si>
   <si>
-    <t>rt @macmagazine: huawei incorpora cancelamento ativo de ruídos em seus "clones" dos airpods » https://t.co/uy6o14gcdn (por @lgcribeiro) htt…</t>
-  </si>
-  <si>
     <t>huawei incorpora cancelamento ativo de ruídos em seus "clones" dos airpods » https://t.co/uy6o14gcdn (por @lgcribeiro) https://t.co/ltb0vihq16</t>
   </si>
   <si>
-    <t>rt @beatrizbarros__: só queria uns airpods 😩</t>
-  </si>
-  <si>
     <t>to indo p foz hj vai ser o dia de se humilha p meu pai a viajem toda por um airpods deusnocomando</t>
   </si>
   <si>
@@ -1079,12 +1165,6 @@
     <t>meus airpods chegaram e eu to só 🥰🥰🥰🥰</t>
   </si>
   <si>
-    <t>rt @ponziomirko: huawei copia spudoratamente le airpods di apple https://t.co/r2vineebjz #huawei #airpods #iphone #apple #ios #applenews #a…</t>
-  </si>
-  <si>
-    <t>rt @applezein: huawei copia spudoratamente le airpods di apple https://t.co/uubqfktt6s #huawei #airpods #iphone #apple #ios #applenews #app…</t>
-  </si>
-  <si>
     <t>meu deus eu esqueci a caixinha ds airpods no uber</t>
   </si>
   <si>
@@ -1106,9 +1186,6 @@
     <t>alguém disse que ele tem airpods feitos em casa hahahahahahah https://t.co/04idszusfu</t>
   </si>
   <si>
-    <t>rt @uccmanvideos: quando estou com meus airpods, e meus amigos vem falar comigo: https://t.co/djjk7qvtvm</t>
-  </si>
-  <si>
     <t>caralho mano, enfiem meu airpods no cu não é possível 🤦🏽‍♂️</t>
   </si>
   <si>
@@ -1136,14 +1213,441 @@
     <t>comprei o airpods, agora é 25 dias pra cegar no brasil</t>
   </si>
   <si>
-    <t>Relevancia</t>
+    <t>mano eu acho airpods muito feio k ainda tem esses falsificados que são do tamanho do meu dedo mindinho jjkj sério bicho como aquilo fica seguro no ouvido mt grande</t>
+  </si>
+  <si>
+    <t>situação chata em ny: tão perdendo tando airpods nos metrô que tão travando os trem 
+https://t.co/ua4n8zwscs</t>
+  </si>
+  <si>
+    <t>esqueci-me de meter os airpods e o apple watch na carga , agora tenho que sair sem eles</t>
+  </si>
+  <si>
+    <t>funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos https://t.co/0totol70ds</t>
+  </si>
+  <si>
+    <t>quero um apple watch e um airpods.  onde posso ofertar meus órgãos?</t>
+  </si>
+  <si>
+    <t>obrigado pela compra e paciência rhuantac aproveite o fone. 
+https://t.co/sabffoomw3 
+whatsapp (31) 99557-1839
+#entregagarantida #importados #conradoimportados #fone #foneapple #apple #airpods #semfio https://t.co/swbmaxnjp1</t>
+  </si>
+  <si>
+    <t>e o shawn mendes que tem pelo menos 6 airpods https://t.co/dpoovh02hl</t>
+  </si>
+  <si>
+    <t>airpods não está tão caro 🤔</t>
+  </si>
+  <si>
+    <t>os mais recentes imitadores airpods da huawei adicionam cancelamento de ruído https://t.co/ouilvg7d1i https://t.co/au7bnpl91d</t>
+  </si>
+  <si>
+    <t>ok agr quero uns airpods 🙃</t>
+  </si>
+  <si>
+    <t>nao acredito que perdi o estojo do airpods. nao acredito</t>
+  </si>
+  <si>
+    <t>kkkkkkkk surtando de levis pq eu acho que perdi meu airpods</t>
+  </si>
+  <si>
+    <t>[#taengstory] 06/09/19 - p: "tmi de hoje? 🤘🏻"
+ty: "eu comprei airpods e perdi em um dia" https://t.co/nexnwnrb7f</t>
+  </si>
+  <si>
+    <t>entrei no chuveiro todo animado, dançando e cantando ---&amp;gt; lembrei que estava com meu airpods no ouvido ---&amp;gt; sai gritando e molhado pela casa ----&amp;gt; não é só um fone de ouvido, são airpods</t>
+  </si>
+  <si>
+    <t>perdi os airpods 🤦‍♂️</t>
+  </si>
+  <si>
+    <t>pensando em comprar um airpods com medo de me arrepender por estar sendo consumista...</t>
+  </si>
+  <si>
+    <t>achei uma otima ideia usar airpods na cama e agora perdi o foninho do lado direito</t>
+  </si>
+  <si>
+    <t>sque já amanhã tou a pegar os meus airpods</t>
+  </si>
+  <si>
+    <t>alguém me dá um fone novo de preferência airpods tá rsrrs</t>
+  </si>
+  <si>
+    <t>dabuso deixei os airpods no escritório e estou com gnd preguiça de lá ir buscar</t>
+  </si>
+  <si>
+    <t>@sbadziak vamos às compras, iphone xs max, 9.5k, apple watch 12k, airpods 2, 1.4k
+não sei vc, mas pra mim tá de graça</t>
+  </si>
+  <si>
+    <t>perdi meu airpods, vo chora</t>
+  </si>
+  <si>
+    <t>acho que estou muito consumista
+esse mês eu comprei uma pelicula3d,uma capa nova pro cel
+comprei um fone normal,uma bateria portátil
+um carregador novo do cel, um par de fones airpods
+oito pilhas recarregáveis e o carregador delas para voltar a usar a minha câmera</t>
+  </si>
+  <si>
+    <t>to precisando de airpods tá osso, ou carrega ou usa o fone! maio passou mas não tem data pra presente 🎁 🙏🏽🙈😂</t>
+  </si>
+  <si>
+    <t>deus pelo amor de deus tira essa vontade de gastadora compulsiva de mim eu não preciso de um airpods</t>
+  </si>
+  <si>
+    <t>quero um airpods: 🥺🥺</t>
+  </si>
+  <si>
+    <t>250 reals um fone original da apple
+1000 um airpods</t>
+  </si>
+  <si>
+    <t>os meus airpods https://t.co/s42ap1swpq</t>
+  </si>
+  <si>
+    <t>do jeito que o louis é, aposto que ele se recusa a comprar airpods pq é horrível e modinha desnecessária</t>
+  </si>
+  <si>
+    <t>há duas semanas sem fone de ouvido... eu só queria meu airpods logo</t>
+  </si>
+  <si>
+    <t>@viegasmay15 veja bem, pelo menos não é um airpods e um apple watch</t>
+  </si>
+  <si>
+    <t>tambem quero uns airpods 😠 https://t.co/nwrgjgtoki</t>
+  </si>
+  <si>
+    <t>a primeira coisa que eu vou comprar quando eu começar a trabalhar vai ser um airpods na moral quero tanto</t>
+  </si>
+  <si>
+    <t>henrique contente, 34 anos;
+desempregado;
+quer comprar airpods. https://t.co/9cxtt8ps37</t>
+  </si>
+  <si>
+    <t>eu quero airpods 😭😭😭</t>
+  </si>
+  <si>
+    <t>obv airpods é modinha louis não gosta de modinha https://t.co/e5r1lam8xg</t>
+  </si>
+  <si>
+    <t>qria tanto um airpods juro</t>
+  </si>
+  <si>
+    <t>comprei um airpods pra ser mais discreta mas o trem fica piscando parecendo uma viatura</t>
+  </si>
+  <si>
+    <t>algum homem feministo pra me dar um airpods    to sem fone</t>
+  </si>
+  <si>
+    <t>- o mundo anda estranho juro  hoje vi um  surdo a usar airpods</t>
+  </si>
+  <si>
+    <t>@daysbeforecosm p te ser sincero estava a trocar dos airpods para os beats, p ouvir o sususu com mais pormenor</t>
+  </si>
+  <si>
+    <t>hoje fui comprar um secador com difusor e sai da loja c um airpods😓</t>
+  </si>
+  <si>
+    <t>tom holland e a sua mania de usar só um de seus airpods. eu juro que morro de medo dele perder esse tipo de fone de ouvido (se bem que ele é rico o suficiente pra comprar vários outros se ele desejar). mas acontece que se estivesse nas minhas mãos, eu iria viver perdendo, sofro.</t>
+  </si>
+  <si>
+    <t>@ju2865 airpods não digo mas outro tele ya</t>
+  </si>
+  <si>
+    <t>@pedromrc99 é desta que compras os airpods</t>
+  </si>
+  <si>
+    <t>o meu pai chega a casa com uns airpods para mim(???)</t>
+  </si>
+  <si>
+    <t>o erro do pobre é comprar o iphone e não poder comprar o airpods pra poder usar o carregador e ouvir música ao mesmo tempo</t>
+  </si>
+  <si>
+    <t>cismei que quero um airpods mas essas réplicas aí msm pq sou pobre e junto cm isso um tênis da fila</t>
+  </si>
+  <si>
+    <t>compro um airpods ou acabo de fechar meu braço ??? eis a questão</t>
+  </si>
+  <si>
+    <t>@apple eu quero um smartwatch, um iphone e um airpods. mas só de responder esse tt já é</t>
+  </si>
+  <si>
+    <t>o video mais agoniante...   tranformei airpods em 18k airgolds https://t.co/h3w4syhihn via @youtube</t>
+  </si>
+  <si>
+    <t>porra, os airpods da apple são bons p crl msm, acabei de testar</t>
+  </si>
+  <si>
+    <t>boa noite será se alguém poderia fazer a boa ação de me doar um airpods????? gratidão</t>
+  </si>
+  <si>
+    <t>alguém me dá um airpods</t>
+  </si>
+  <si>
+    <t>meus airpods tao com o som muito baixo eu vou chorar.</t>
+  </si>
+  <si>
+    <t>ai gente nao sei se junto dinheiro pra comprar os airpods ou um apple watch 
+https://t.co/pmgwusg1f0</t>
+  </si>
+  <si>
+    <t>os meus airpods não estão funcionandokkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@marcogomes @jovemnerd o airpods deixa bem claro que vc ta correndo descalço por opção</t>
+  </si>
+  <si>
+    <t>@joseadorno já usei os airpods e eles não caem do meu ouvido jamais! tô tendendo pra eles por serem mais convenientes na hora de sair rapidamente do ouvido. publica esse comparativo que eu quero ler hehehe</t>
+  </si>
+  <si>
+    <t>#whitepeopleproblems @apple #feedback vcs tão ligado q os airpods são uns 60% menos potentes que os earpods, certo?</t>
+  </si>
+  <si>
+    <t>e meu namorado q perdeu o airpods</t>
+  </si>
+  <si>
+    <t>como está difícil ganhar dinheiro,estou tentando vender meu iphone x +airpods,quem puder me ajudar dando rt fico grato tmj 🤗 https://t.co/2qnrnbc8nj</t>
+  </si>
+  <si>
+    <t>comprei um airpods vagabundo num site aleatório serase chega espero q sim foi 60 reais</t>
+  </si>
+  <si>
+    <t>5 dias para o lancamento do iphone 11, 11pro e 11 pro max, mal posso esperar.
+#iphone11 #applebrasil #appletudo #iphone11pro #iphone11promax #airpods #airpodspro #airpods3 #ios13 #ios131 #macoscatalina #ipados</t>
+  </si>
+  <si>
+    <t>@detinhapaquete enquanto eu fui comprar airpods em vez de comprar que choro ela todos os dias e tinha dinheiro suficiente mas nao fui comprar airpods se bem que os fones normal🤦🏾‍♀️</t>
+  </si>
+  <si>
+    <t>alguem me segura para nao comprar essa merda pros airpods kkkkkkk https://t.co/rhlvtusrwi</t>
+  </si>
+  <si>
+    <t>esqueci o caralho dos meus airpods no trabalho</t>
+  </si>
+  <si>
+    <t>@rafaelagomes_ve olha o mundo te dando uma oportunidade de vc comprar airpods ! aproveita e compra logo locaaaaaa</t>
+  </si>
+  <si>
+    <t>no outro dia vi alguem deixar cair uma caixa de airpods e pensei para mim: "aquele tipo deixou cair uma caixa de fio dental!..." 
+estou a ficar velho</t>
+  </si>
+  <si>
+    <t>viva aos airpods https://t.co/tlclc67cdm</t>
+  </si>
+  <si>
+    <t>cheguei na academia e meus airpods tão sem bateria e as musicas que tao tocando na academia sao pessimas 🥺</t>
+  </si>
+  <si>
+    <t>@joseadorno tô na maior dúvida entre eles vs airpods. qual sua recomendação?</t>
+  </si>
+  <si>
+    <t>só esses últimos meses perdi: 
+óculos da chilli bens
+relógio da chilli bens 
+pulseira em prata 
+caixinha q carrega o airpods, agr eu tenha certeza q eu sou irresponsável 🥵🥵😭😭😭</t>
+  </si>
+  <si>
+    <t>meu fone ta dando problema, o que eu fiz?
+acabei de comprar um airpods</t>
+  </si>
+  <si>
+    <t>seis airpods 
+shawn ta burguês https://t.co/tgr7zxzljj</t>
+  </si>
+  <si>
+    <t>e pensar que os airpods cm esse preço altíssimo nem têm cancelamentos de ruídos. https://t.co/jrembli4p5</t>
+  </si>
+  <si>
+    <t>puts mais um motivo pra comprar airpods</t>
+  </si>
+  <si>
+    <t>eu só vou acompanhar o #appleevent se vocês jurarem que vai ter airpods pretos!!!!!!! @apple</t>
+  </si>
+  <si>
+    <t>comprei um xiaomi airdots basic. o som do basic consegue ser melhor do que os airpods da maçã...</t>
+  </si>
+  <si>
+    <t>@sargentofahur @iracema07650411 @jairbolsonaro faz igual ao senador cajuru cola os airpods no ouvido e fica ouvindo uma música raiz</t>
+  </si>
+  <si>
+    <t>de aniversário me deem pulseiras para apple watch 38mm / 40mm e também em deem cases para airpods 2</t>
+  </si>
+  <si>
+    <t>e continuo sem saber como estes são os sextos airpods dele https://t.co/tjff8smudf</t>
+  </si>
+  <si>
+    <t>eu nego airpods 
+eu rejeito airpods
+eu não entendo quem utiliza airpods
+puts grila airpods são uma merdaaa</t>
+  </si>
+  <si>
+    <t>quero uma capinha para os airpods da pull</t>
+  </si>
+  <si>
+    <t>hoje no metro fui gozado por 2 putos de 10 anos por não ter airpods e andar feito idiota com fones de fios. cant you see i am broke</t>
+  </si>
+  <si>
+    <t>@gabianselmi_ descobriu as ferramentas do airpods e surtou kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>mais um motivo pra eu querer airpods 👍 https://t.co/nphbphkue0</t>
+  </si>
+  <si>
+    <t>white people problem: 
+-sai de casa com os airpods descarregados :(</t>
+  </si>
+  <si>
+    <t>o bonito deixou o airpods dele comigo, que adianto pra arrumar a casa ouvindo uma musica e esquecer do mundo</t>
+  </si>
+  <si>
+    <t>eu não consigo mais usar fones com fio desde que comprei os meus airpods</t>
+  </si>
+  <si>
+    <t>boy recebi uns airpods replica, são bue grandes em comparação aos originais mas dão um jeito do crlh 😌</t>
+  </si>
+  <si>
+    <t>@sadbutfabitch to sim!!! amigo recomendo muito! ótima a qualidade do som, bom isolamento acústico, ergonômicos, intra-auricular o que não deixa cair.... achei melhor comparado com o airpods, sem contar que é beeeeem mais barato. 4.8/5 porque queria branco e não achei kkkkk</t>
+  </si>
+  <si>
+    <t>a vei quero meu airpods logo vochora</t>
+  </si>
+  <si>
+    <t>vendi o airpods, alguem recomenda o mi airdots ou o da jbl free x?</t>
+  </si>
+  <si>
+    <t>será que é lei jogador de futebol  descer do ônibus usando airpods?</t>
+  </si>
+  <si>
+    <t>encontrei um que tem airpods em todas as fotos eu só pesso para ter pesquisado errado nao da</t>
+  </si>
+  <si>
+    <t>era só um airpods na minha vida msm, sonho</t>
+  </si>
+  <si>
+    <t>o mta de nova york gostaria que você parasse de colocar seus airpods nas pistas https://t.co/aecat3rviz https://t.co/6jprjrzdai</t>
+  </si>
+  <si>
+    <t>nao sei onde enfiei meus airpods e to tentando nao ficar doida por causa disso</t>
+  </si>
+  <si>
+    <t>fiz um teste caso eu perca o airpods dentro de casa e meu é muito massa</t>
+  </si>
+  <si>
+    <t>“shawn’s airpods #6” quantos airpods esse menino tem? eu só queria um https://t.co/t1oqw85huh</t>
+  </si>
+  <si>
+    <t>era só um airpods na minha vida mesmo</t>
+  </si>
+  <si>
+    <t>@lmjdelicated mais fácil comprar um celular novo do que airpods</t>
+  </si>
+  <si>
+    <t>@iwurmani mo? airpods são caros pra cacete nunca que vou ter</t>
+  </si>
+  <si>
+    <t>e o meu dog que destruiu meus airpods 😪😪😪😪💔 https://t.co/rnxv0ubcqv</t>
+  </si>
+  <si>
+    <t>preciso de airpods</t>
+  </si>
+  <si>
+    <t>airpods [lacrado]
+detalhes do produto:
+•original apple lacrado;
+•garantia de 1 ano da apple;
+#gmimports #apple #airpods https://t.co/bgijcqmtji</t>
+  </si>
+  <si>
+    <t>acham que vale a pena comprar os airpods?</t>
+  </si>
+  <si>
+    <t>eu n sei usar airpods.  eles me irritam. nunca tão carregados</t>
+  </si>
+  <si>
+    <t>muito ruim ir no mercado sem meu airpods</t>
+  </si>
+  <si>
+    <t>poupar guita para os airpods</t>
+  </si>
+  <si>
+    <t>@shawnespensive “shawn’s airpods #6” caralho shawn voce tem mais de 6 airpods e eu aqui sem nenhum</t>
+  </si>
+  <si>
+    <t>mas é claro que eu fui comprar uma case para os airpods</t>
+  </si>
+  <si>
+    <t>tenho cá um dom p perder airpods nem vos digo</t>
+  </si>
+  <si>
+    <t>oh, sempre q perco os airpods eu vou no yt e meto só: ‘loud sound’</t>
+  </si>
+  <si>
+    <t>to muito puta deixei meu airpods carregando a noite inteira e tá sem bateria 😡</t>
+  </si>
+  <si>
+    <t>ai pprt mrm era só alguem me dando um airpods, ia ser o cara mais feliz do mundo</t>
+  </si>
+  <si>
+    <t>agora pra mim o melhor è o #6 no airpods kkkkkk #shamelessandliaroutnow https://t.co/cxfzjrudyj</t>
+  </si>
+  <si>
+    <t>os “airpods” do pessoal aq da escola parecem uns pirulito branco</t>
+  </si>
+  <si>
+    <t>@barceioneta que airpods mas chulos</t>
+  </si>
+  <si>
+    <t>desde q entrei na academia a vontade de ter airpods e apple watch ta so aumentando</t>
+  </si>
+  <si>
+    <t>fone de ouvido - bluetooth - airpods
+por apenas 3x de r$ 39,97
+frete grátis
+09:00:01 05/09/2019 - https://t.co/pmpmikih6i</t>
+  </si>
+  <si>
+    <t>bom dia acabei de da descarga no meu airpods bom dia grande dia so a pessoa msi burra do brasil</t>
+  </si>
+  <si>
+    <t>sonhei q estraguei os airpods fds</t>
+  </si>
+  <si>
+    <t>alba deixou o airpods dela comigo 🥰</t>
+  </si>
+  <si>
+    <t>e eu q comprei uma case de airpods do bt21 sendo q ainda nem tenho o airpods 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>já viram a facilidade que os ladrões tem pra roubar airpods ? 😏
+enquanto eu estiver a andar de bus aquilo eu não posso comprar 😩</t>
+  </si>
+  <si>
+    <t>alguém me explica como é que eu conecto os airpods ao iphone e que eu não to a conseguir 🙄</t>
+  </si>
+  <si>
+    <t>@xxxbutnotporn é bué fácil mano, vais aos teus dispositivos bluetooth nas definições do iphone e depois abres a tampa da caixa mas sem tirares os airpods lá de dentro e esperas que apareça aquela cena a dizer a bateria dos airpods , depois clicas na cena do “i” e pronto. https://t.co/dwgem0mzzj</t>
+  </si>
+  <si>
+    <t>ninguém merece, esqueci de carregar meu airpods e agr n pss escutar música pra ir pra escola</t>
+  </si>
+  <si>
+    <t>mas será q alguém me explica como é q se alteram as definições dos airpods?</t>
+  </si>
+  <si>
+    <t>Relevante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,21 +1657,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1207,26 +1696,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y302" sqref="Y302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y139" sqref="Y139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1575,8 +2055,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>343</v>
+      <c r="Y1" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1592,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1600,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1616,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1624,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1640,12 +2120,20 @@
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>3</v>
@@ -1653,15 +2141,15 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1669,7 +2157,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1677,15 +2165,15 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y16">
         <v>3</v>
@@ -1693,23 +2181,23 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y19">
         <v>2</v>
@@ -1717,7 +2205,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -1725,31 +2213,31 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -1757,63 +2245,119 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Y39">
         <v>3</v>
@@ -1821,7 +2365,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -1829,63 +2373,87 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Y49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Y51">
         <v>3</v>
@@ -1893,15 +2461,23 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -1909,7 +2485,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Y55">
         <v>3</v>
@@ -1917,23 +2493,31 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Y59">
         <v>3</v>
@@ -1941,7 +2525,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -1949,23 +2533,31 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Y62">
         <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y63">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -1973,15 +2565,15 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="Y66">
         <v>3</v>
@@ -1989,76 +2581,127 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="Y74">
         <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y75">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="Y76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Y80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Y82">
         <v>1</v>
@@ -2066,23 +2709,39 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="Y85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y86">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Y87">
         <v>3</v>
@@ -2090,31 +2749,39 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Y88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="Y90">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Y92">
         <v>3</v>
@@ -2122,7 +2789,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="Y93">
         <v>3</v>
@@ -2130,47 +2797,47 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Y94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="Y95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="Y96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="Y97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="Y99">
         <v>1</v>
@@ -2178,15 +2845,15 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="Y101">
         <v>3</v>
@@ -2194,23 +2861,31 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="Y102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y103">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Y105">
         <v>1</v>
@@ -2218,31 +2893,31 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="Y107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Y108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="Y109">
         <v>1</v>
@@ -2250,55 +2925,71 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="Y111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="Y112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="Y113">
         <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="Y115">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="Y117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="Y118">
         <v>3</v>
@@ -2306,15 +2997,15 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="Y119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="Y120">
         <v>3</v>
@@ -2322,15 +3013,15 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="Y121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="Y122">
         <v>3</v>
@@ -2338,23 +3029,23 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="Y125">
         <v>3</v>
@@ -2362,39 +3053,47 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Y127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="Y128">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="Y130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="Y131">
         <v>3</v>
@@ -2402,23 +3101,23 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Y132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="Y133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="Y134">
         <v>1</v>
@@ -2426,15 +3125,31 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="Y138">
         <v>3</v>
@@ -2442,79 +3157,87 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Y139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Y140">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y141">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="Y144">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Y145">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="Y146">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="Y147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="Y148">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="Y149">
         <v>1</v>
@@ -2522,23 +3245,47 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Y150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y151">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="Y152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="Y155">
         <v>3</v>
@@ -2546,23 +3293,23 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="Y156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="Y157">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="Y158">
         <v>2</v>
@@ -2570,31 +3317,31 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Y159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="Y160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="Y161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="Y162">
         <v>3</v>
@@ -2602,15 +3349,15 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="Y163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="Y164">
         <v>3</v>
@@ -2618,15 +3365,15 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="Y165">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="Y166">
         <v>1</v>
@@ -2634,15 +3381,39 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="Y167">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="Y171">
         <v>2</v>
@@ -2650,23 +3421,23 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="Y172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="Y173">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Y174">
         <v>2</v>
@@ -2674,7 +3445,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="Y175">
         <v>3</v>
@@ -2682,15 +3453,15 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="Y176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="Y177">
         <v>1</v>
@@ -2698,15 +3469,15 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="Y178">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="Y179">
         <v>1</v>
@@ -2714,7 +3485,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="Y180">
         <v>1</v>
@@ -2722,87 +3493,151 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="Y181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="Y182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y184">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="Y188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="Y193">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y196">
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y198">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="Y199">
         <v>1</v>
@@ -2810,23 +3645,23 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="Y200">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="Y201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="Y202">
         <v>1</v>
@@ -2834,39 +3669,39 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="Y203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="Y204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="Y205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="Y206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Y207">
         <v>3</v>
@@ -2874,55 +3709,135 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="Y208">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y210">
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="Y211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y212">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="Y213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="Y214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y221">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="Y222">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="Y223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="Y224">
         <v>3</v>
@@ -2930,15 +3845,31 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="Y225">
         <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y227">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="Y228">
         <v>1</v>
@@ -2946,15 +3877,15 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="Y229">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="Y230">
         <v>1</v>
@@ -2962,23 +3893,31 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="Y231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="Y232">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="Y234">
         <v>3</v>
@@ -2986,23 +3925,31 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="Y235">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="Y237">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="Y238">
         <v>1</v>
@@ -3010,7 +3957,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="Y239">
         <v>3</v>
@@ -3018,31 +3965,47 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="Y240">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y241">
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="Y242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="Y243">
         <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="Y245">
         <v>1</v>
@@ -3050,15 +4013,39 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="Y246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y249">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="Y250">
         <v>3</v>
@@ -3066,154 +4053,414 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="Y251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="Y252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y257">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="Y258">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="Y259">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="Y260">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="Y266">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="Y267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="Y268">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="Y270">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y275">
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="Y276">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y277">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="Y278">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="Y280">
         <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="Y283">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y284">
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="Y285">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="Y288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y290">
         <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="Y291">
         <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y293">
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="Y294">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y295">
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="Y296">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y301" s="4"/>
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y301">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3227,1013 +4474,1010 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>214</v>
+      <c r="A55" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>272</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>284</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>290</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>291</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>293</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>312</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>313</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>314</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>316</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>317</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>318</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>234</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>234</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>317</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>319</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>324</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>333</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>337</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>338</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>340</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>341</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -1,29 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="11_4A969315AC4391A4FA170B2527FAFD45E12C5422" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5676A814-D734-3F4C-AE75-E7C47666EC22}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27520" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="965">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>sam comprou um airpods e me deu o outro fone dele
+acontece q o fone dele tem o cheiro maravilhoso gostoso dele
+eu nao quero q esse cheiro saia nunca do fone</t>
+  </si>
+  <si>
+    <t>finalmente os meus airpods foram achados 🙏🏾😎</t>
+  </si>
+  <si>
+    <t>queria um airpods</t>
+  </si>
+  <si>
+    <t>airpods vale o dinheiro ?</t>
+  </si>
+  <si>
+    <t>eu não sei onde tá a porra do meu airpods 
+minha mãe vai comer tanto a porra do meu cu oooooooooooooooooo universo entenda que eu não tenho dinheiro</t>
+  </si>
+  <si>
+    <t>eu esqueci os meus airpods 😭😭😭😭😭</t>
+  </si>
+  <si>
+    <t>acordei de airpods</t>
+  </si>
+  <si>
+    <t>fones de ouvido sem fio rivais dos airpods foram destaque na ifa 2019 https://t.co/ejrtljsyzu https://t.co/b8dufd9xje</t>
+  </si>
+  <si>
+    <t>vou dormir e sonhar com meus novos airpods</t>
+  </si>
+  <si>
+    <t>o bernardo silva ainda não conhece os airpods
+https://t.co/cstsugcy24
+através do @googlenews</t>
+  </si>
+  <si>
+    <t>deus q me perdoe mas a pessoa q vai com airpods p faculdade é o auge da caboquice</t>
+  </si>
+  <si>
+    <t>boa acabei de perder um airpods</t>
+  </si>
+  <si>
+    <t>@lyxdico caralho amigo vc faltou na aula de colocar airpods?</t>
+  </si>
+  <si>
+    <t>quero um airpods</t>
+  </si>
+  <si>
+    <t>alguem me da airpods de presente pelo amor de deus eu não aguento mais ter que ficar revezando entre carregar o celular ou escutar música</t>
+  </si>
+  <si>
+    <t>alguma ong que doa airpods online???</t>
+  </si>
+  <si>
+    <t>@douglassmc1 jaeee, peguei o airpods 2 q é o mais bradock q tem</t>
+  </si>
+  <si>
+    <t>comprei o airpods da apple 😅</t>
+  </si>
+  <si>
+    <t>consegui los airpods por $400 pe, puta que oferton diria meli r</t>
+  </si>
+  <si>
+    <t>puto que meu airpods tá baixo p carai que ódio</t>
+  </si>
+  <si>
+    <t>eu vivo dia e noite com medo de perder meus airpods</t>
+  </si>
+  <si>
+    <t>os airpods matching com os meus amoh https://t.co/fe9ocofsv3</t>
+  </si>
+  <si>
+    <t>comprem me lá uns airpods 🥺</t>
+  </si>
+  <si>
+    <t>só esperando meus airpods pra começar a correr na rua de noite</t>
+  </si>
+  <si>
+    <t>posso comer seu cuzinho aí depois eu de te dou o airpods???? ^_^ — pode 😋🥳🥰 https://t.co/3uohmmmq9d</t>
+  </si>
+  <si>
+    <t>@bouv1s vc viu que saiu airpods 2? eu to com fogo pra trocar o meu... sem condições guardar dinheiro assim</t>
+  </si>
+  <si>
+    <t>sera se vale a pena compra os airpods da apple</t>
+  </si>
+  <si>
+    <t>@mynaharker tomando seu the coffe diário e falando dos seus airpods</t>
+  </si>
+  <si>
+    <t>@danie_c_a tem que trazer airpods pra mim</t>
+  </si>
+  <si>
+    <t>@ramos_j6 airpods da nózinha só digo isto</t>
+  </si>
+  <si>
+    <t>alguem me da um airpods</t>
+  </si>
+  <si>
+    <t>bem q podia existir airpods a prova da água né, pra escutar música no chuveiro</t>
+  </si>
+  <si>
+    <t>oh vá lá, és mais do que dinheiro — quero mt comprar airpods https://t.co/k5ypixurga</t>
+  </si>
+  <si>
+    <t>pensando se eu compro o airpods 🤔</t>
+  </si>
+  <si>
+    <t>será se eu seria burro o suficiente de comprar airpods e perder???</t>
+  </si>
+  <si>
+    <t>falando sério, quem vai me dar um airpods aí?</t>
+  </si>
+  <si>
+    <t>eu derrubo meu airpods todo dia meu kkkkkkkk</t>
+  </si>
+  <si>
+    <t>o próximo iphone pode não ter o carregamento sem fio reverso para os seus airpods, afinal https://t.co/ayagsvvb3n https://t.co/1wi52qh75s</t>
+  </si>
+  <si>
+    <t>comprar mis airpods o guardar dinerito para el 16 🤔🤔🤔</t>
+  </si>
+  <si>
+    <t>aceito um airpods de presente de natal 
+#alômãe</t>
   </si>
   <si>
     <t>íris!! alguém ta a mudar a música dos airpods, já mudou duas vezes
@@ -53,9 +173,6 @@
     <t>@castelasforyou airpods da para substituir por outros wireless. se eu tivesse money usava a campanha da apple para comprar o ipad com a canetinha e eles davam uns beats wireless em relação ao apple watch acredito que de mais jeito a ti que a mim que não faço nenhum</t>
   </si>
   <si>
-    <t>eu ia comprar um fone novo né kkkk, aí ganhei um airpods 🤪🤪 quase comprei um fone novo, ufa que não comprei</t>
-  </si>
-  <si>
     <t>@wakaya__ fds queria muito, o meu pc é um calhamaço esquece não dá jeito nenhum 
 perfeito era ter o combo completo:iphone,airpods,applewatch(o meu primo tem e pqp aquilo da mt jeito) e ipad</t>
   </si>
@@ -175,9 +292,6 @@
   </si>
   <si>
     <t>@williansoaresbb já trás os airpods pra eu viu? de presente ♥️</t>
-  </si>
-  <si>
-    <t>puto miguel falhaste nos airpods</t>
   </si>
   <si>
     <t>saudades dos meus airpods... né @analu_bhaeffner</t>
@@ -582,9 +696,6 @@
     <t>ai eu não acredito que perdi os airpods..............</t>
   </si>
   <si>
-    <t>queria um airpods</t>
-  </si>
-  <si>
     <t>meu sonho de princesa: airpods</t>
   </si>
   <si>
@@ -611,9 +722,6 @@
   </si>
   <si>
     <t>perdi os meus airpods 😢</t>
-  </si>
-  <si>
-    <t>quero um airpods</t>
   </si>
   <si>
     <t>os airpods são um absurdo de carod aqui no brasil pqp, certeza que se comprar passagem de ida e volta pra miami, comprar eles lá e voltar pra cá sai mais barato</t>
@@ -661,9 +769,6 @@
   </si>
   <si>
     <t>sempre acaba em gabriel amaral airpods ynw melly</t>
-  </si>
-  <si>
-    <t>nunca mais arranjo essa sorte da vida d comprar um airpods barato</t>
   </si>
   <si>
     <t>meu irmão perguntou se eu queria um airpods, em questão de semanas eu ia perder um deles</t>
@@ -834,9 +939,6 @@
     <t>ganhei uns airpods de graça!!!! 😍</t>
   </si>
   <si>
-    <t>airpods salva muito pra ouvir música arrumando a casa</t>
-  </si>
-  <si>
     <t>feliz q agr tenho +2 carregadores novos pq do cel e dos airpods</t>
   </si>
   <si>
@@ -982,9 +1084,6 @@
   </si>
   <si>
     <t>quem quiser eu to tendo airpods primeira e segunda geração lacrad oi na caixa vem direct</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
   <si>
     <t>com toda certeza vou roubar os airpods da duda, ainda mais que to sem fone agora</t>
@@ -1524,6 +1623,9 @@
     <t>será que é lei jogador de futebol  descer do ônibus usando airpods?</t>
   </si>
   <si>
+    <t>Teste</t>
+  </si>
+  <si>
     <t>encontrei um que tem airpods em todas as fotos eu só pesso para ter pesquisado errado nao da</t>
   </si>
   <si>
@@ -1534,9 +1636,6 @@
   </si>
   <si>
     <t>nao sei onde enfiei meus airpods e to tentando nao ficar doida por causa disso</t>
-  </si>
-  <si>
-    <t>fiz um teste caso eu perca o airpods dentro de casa e meu é muito massa</t>
   </si>
   <si>
     <t>“shawn’s airpods #6” quantos airpods esse menino tem? eu só queria um https://t.co/t1oqw85huh</t>
@@ -1640,14 +1739,1368 @@
     <t>mas será q alguém me explica como é q se alteram as definições dos airpods?</t>
   </si>
   <si>
-    <t>Relevante</t>
+    <t>@onofrx e custa menos de 10% do valor de um airpods</t>
+  </si>
+  <si>
+    <t>porra ahahahah isso nao se faz, estava aqui a toa agr vi sususu tirei ja meus airpods da caixa meti na orelha, cliquei no video e so estreia daqui a 15 horas😭😭😭😭 https://t.co/f0dp7gqwj4</t>
+  </si>
+  <si>
+    <t>seperti airpods cha junho🤔😂😂 @x1members https://t.co/t9pnuwetqj</t>
+  </si>
+  <si>
+    <t>é assim q se faz o pessoal entrar no seu perfil do insta. de um airpods pra alguem.
+é uq eles axam mas eu vendi https://t.co/nffsdxek2r</t>
+  </si>
+  <si>
+    <t>comprei um airpods, esses fones sem fio to tomando uma coça p usar os dois tmnc</t>
+  </si>
+  <si>
+    <t>caros meninos do twitter, quando uma menina posta na tl “alguém me oferece auriculares” está a se referir aos airpods. não façam coisas de vergonha please. 😁</t>
+  </si>
+  <si>
+    <t>ba que vontade de fazer uma axademia, vou buscar um airpods só pra meter um corpinho melhorn</t>
+  </si>
+  <si>
+    <t>se eles lançam os airpods 3 com noise canceling agora depois de eu ter comprado os 2 imma fight someone</t>
+  </si>
+  <si>
+    <t>qeria mutio um airpods ooooo tristeza</t>
+  </si>
+  <si>
+    <t>queria mesmo era comprar uma capinha pro meu airpods</t>
+  </si>
+  <si>
+    <t>perdi meus airpods ohhh merda</t>
+  </si>
+  <si>
+    <t>enquanto o meu airpods não chega, amanhã vou lá comprar o fone sem fio da xiaomi</t>
+  </si>
+  <si>
+    <t>alguém sabe onde tenha alguma réplica boa de airpods pra comprar?</t>
+  </si>
+  <si>
+    <t>era só um apple watch, iphone xs max e um airpods na minha lifeeee</t>
+  </si>
+  <si>
+    <t>onde eu enfiei meu airpods</t>
+  </si>
+  <si>
+    <t>merda tava a ouvir carti nos airpods e passou p a coluna,puta de ataque</t>
+  </si>
+  <si>
+    <t>eu encosto no conector do fone e ele troca de música e o problema n eh o fone pq eu tenho 3 e acontece com todos pqp n acredito q vou ter q comprar um airpods p poder ouvir música em paz ajuda aí @apple</t>
+  </si>
+  <si>
+    <t>@joaquim_005 contém suas historinhas de quando perderam os seus airpods, no meu caso eu fiquei uns 30 minuto procurando quando fui ver tava no meu cu</t>
+  </si>
+  <si>
+    <t>queria muito os airpods sem fio</t>
+  </si>
+  <si>
+    <t>luiza pagou uma cota nos airpods e não consegue gravar um áudio decente, sinceramente viu</t>
+  </si>
+  <si>
+    <t>tranformei airpods em 18k airgolds https://t.co/g0xouod2sb via @youtube
+eu podia estar dormindo , mas to vendo esse vídeo e nem airpod eu tenho 🤦🏾‍♂️</t>
+  </si>
+  <si>
+    <t>@na1souobrigada só vô pedir pra comprar o airpods quando eu pagar ela kkkkk</t>
+  </si>
+  <si>
+    <t>meus airpods chegam essa semana 🙏🙏</t>
+  </si>
+  <si>
+    <t>perdi um lado do airpods kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>preciso substituir meus airpods, os atuais já não estão mais dando conta. hoje voltando para casa eles desligaram com 41% de bateria.</t>
+  </si>
+  <si>
+    <t>o dia que eu tiver airpods serei uma pessoa realizada</t>
+  </si>
+  <si>
+    <t>em dúvida se compro o airpods ou n kkkk</t>
+  </si>
+  <si>
+    <t>parece tanto sp https://t.co/m4sbzzmkz5</t>
+  </si>
+  <si>
+    <t>cade meu airpods q eu oerdi dnv?????????????? eu smp perco pqp</t>
+  </si>
+  <si>
+    <t>@bluepjmin camisolas largas q não se vejam os calções, colar de conchas, garrafa térmica, elástico para cabelo, coque frouxo, vans, airpods, perfume da victoria secrets e é nisso q se resume aaaaaaa e canudos de metal</t>
+  </si>
+  <si>
+    <t>@apple manda um airpods tbm</t>
+  </si>
+  <si>
+    <t>@joananeto2 pq compraste airpods anyway? qnd te perguntei o que achaste de eu comprar disseste que era dinheiro mal gasto ;-;</t>
+  </si>
+  <si>
+    <t>@joananeto2 ent e os airpods?</t>
+  </si>
+  <si>
+    <t>queria de volta meu airpods que levaram ! 😔</t>
+  </si>
+  <si>
+    <t>fico admirado com quem usa airpods, quando eu olho só me imagino perdendo um dos fones no primeiro dia de uso</t>
+  </si>
+  <si>
+    <t>o mano tá aqui no eskada c airpods, ele vive em 3019</t>
+  </si>
+  <si>
+    <t>vei, perdi meu airpods( o lado esquerdo)
+mano</t>
+  </si>
+  <si>
+    <t>crl que ódio mano, tava atravessando correndo aí um lado do airpods caiu e o carro passou em cima vtncccc</t>
+  </si>
+  <si>
+    <t>to triste alguém me dá um airpods 😭</t>
+  </si>
+  <si>
+    <t>funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos https://t.co/t4gykbnaxm</t>
+  </si>
+  <si>
+    <t>alguém pode me oferecer uns airpods sff</t>
+  </si>
+  <si>
+    <t>é pedir muito um airpods e watch??? jesus</t>
+  </si>
+  <si>
+    <t>@exitfps airpods machuca minha orelha, vendi o meu pro yujao</t>
+  </si>
+  <si>
+    <t>@_geto compra o airpods e um da hyperx, gg</t>
+  </si>
+  <si>
+    <t>a bateria do airpods dura mais que 4 horas ?  pq meu jbl tá durando isso e eu n queria trocar de fone por um que dure a mesma coisa.</t>
+  </si>
+  <si>
+    <t>eu só queria uma capinha pro meu airpods</t>
+  </si>
+  <si>
+    <t>quero tanto uns airpods :(</t>
+  </si>
+  <si>
+    <t>queria tá comprando os airpods q eu gosto</t>
+  </si>
+  <si>
+    <t>ameeeeeem irmãos, vem ios 13, vem iphone xi, vem airpods 3, o resto eu caguei mesmo https://t.co/0xax79di8o</t>
+  </si>
+  <si>
+    <t>vei, perdi meu airpods 
+mano</t>
+  </si>
+  <si>
+    <t>é normal perder os airpods constantemente?</t>
+  </si>
+  <si>
+    <t>funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos
+https://t.co/iee0v5lxjo</t>
+  </si>
+  <si>
+    <t>só um airpods pra me fazer feliz hj</t>
+  </si>
+  <si>
+    <t>cheguei num nível de não conseguir mexer no celular sem meu airpods</t>
+  </si>
+  <si>
+    <t>tenho de comprar uns airpods urgentemente</t>
+  </si>
+  <si>
+    <t>gnt eu to surtando com um airpods. alguém por favor pode vender um rim e comprar um pra mim???</t>
+  </si>
+  <si>
+    <t>e minha amiga que ta vendendo a caixa do airpods dela pq o cachorro dela comeu os fones (detalhe: com um mês de uso) rindo com respeito</t>
+  </si>
+  <si>
+    <t>melhor investimento da minha vida foi nesse airpods assim n ouço as bobajada q o bolsominion fala na aula dele</t>
+  </si>
+  <si>
+    <t>@silvermzt eu to com o meu 8 plus ja faz um ano e o cabo ainda ta de boa... uso um pra carregar o celular e outro p carregar o airpods</t>
+  </si>
+  <si>
+    <t>nunca agradeci tanto por ter airpods. amanhã às nove da manhã vou enfiar essa merda no ouvido e escutar até o cu cair da bunda porra e foda-se à aula ô boceta</t>
+  </si>
+  <si>
+    <t>- comprei meus airpods chiquíssima no chinês 
+to um nojo</t>
+  </si>
+  <si>
+    <t>meu #whitepeopleproblems de hoje consiste em ter que adiar a ida à academia porque esqueci de colocar os airpods pra carregar 🤦🏼‍♂️😒</t>
+  </si>
+  <si>
+    <t>funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos https://t.co/5qtwqrisif</t>
+  </si>
+  <si>
+    <t>problemas do primeiro mundo... rsrsrs
+funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos https://t.co/r9bcau5bi7</t>
+  </si>
+  <si>
+    <t>crônicas de um airpods https://t.co/18y9kthsud</t>
+  </si>
+  <si>
+    <t>mal comprei os airpods e ja quase perdi na academia puta merda</t>
+  </si>
+  <si>
+    <t>deus abençoe os airpods que minha mamãe fofa me deu. porque tá tocando uma mistura de gospel com sertanejo no uber, eu não quero nem falar sobre.</t>
+  </si>
+  <si>
+    <t>aaaaaaaaa (n tenho airpods) https://t.co/yjb3dhrduz</t>
+  </si>
+  <si>
+    <t>pior que é mt bom, pq vc ta chorando airpods????</t>
+  </si>
+  <si>
+    <t>funcionários do metrô de nova york estão muito cansados ​​de pegar airpods perdidos https://t.co/xsy7draqtn</t>
+  </si>
+  <si>
+    <t>pra quem acha que a apple é infalível em design, os airpods são só um exemplo de produto falho da empresa (na boa, eles não deviam cair tanto da orelha da galera) https://t.co/upt0srmxho</t>
+  </si>
+  <si>
+    <t>@crg2o @dse7e não faço ideia. opá não foi barato mas vi a comparação entre estes e os airpods e estes são melhores no som e são mais difíceis de perder.</t>
+  </si>
+  <si>
+    <t>- use airpods, ou fones sem fio - https://t.co/mmmrs0agoj</t>
+  </si>
+  <si>
+    <t>cassi me deu o airpods, perfeito 😍😝</t>
+  </si>
+  <si>
+    <t>a alba não quer me emprestar o airpods dela</t>
+  </si>
+  <si>
+    <t>liked on youtube: esse fone foi feito para você não precisar dos airpods da apple - redmi airdots https://t.co/tpmjdwypog</t>
+  </si>
+  <si>
+    <t>tática anti furto. minha personalização da case do meu airpods. https://t.co/1etkw2igzn</t>
+  </si>
+  <si>
+    <t>@igor26rr airpods com caixinha?</t>
+  </si>
+  <si>
+    <t>amg meu comprou um airpods e me deu o normal dele. ajudem os necessitados cm ele🙃</t>
+  </si>
+  <si>
+    <t>quero muito aqueles fones bluetooth estilo airpods mas aqueles mais baratos, alguém sabe aonde vende um bom?????</t>
+  </si>
+  <si>
+    <t>sdds airpods 😐</t>
+  </si>
+  <si>
+    <t>como eu vivi tanto tempo sem os airpods meu deus</t>
+  </si>
+  <si>
+    <t>e eu q hj fiquei de airpods na aula assistindo a 15ª temporada de grey’s anatomy 🤩</t>
+  </si>
+  <si>
+    <t>airpods revolucionaram minhas aulas de fisica</t>
+  </si>
+  <si>
+    <t>perdi os meus airpods ohhhhhhhhhhhhhhhhhhh merda</t>
+  </si>
+  <si>
+    <t>meu airpods virou comunitário pro povo lá da sala tbm skskskkd</t>
+  </si>
+  <si>
+    <t>essa multa já era o airpods que eu queria, mas vou correr atrás que semana que vem eu compro</t>
+  </si>
+  <si>
+    <t>e eu q n faz nem uma semana q ganhei o airpods e perdi a caixinha q carrega ele 😭😭😭😭😭😭😭😭</t>
+  </si>
+  <si>
+    <t>perdi os meus airpods, amazing</t>
+  </si>
+  <si>
+    <t>airpods são uma coisa louca, você esquece que eles estão nas suas orelhas, tira a blusa e eles vão parar na casa do caralho, entra no banho com eles e estraga</t>
+  </si>
+  <si>
+    <t>so queria encontrar o case do meu airpods</t>
+  </si>
+  <si>
+    <t>comprei um airpods tô me sentindo uma burguesa safada</t>
+  </si>
+  <si>
+    <t>@portalshawnbr_ mano, ele não tira o airpods não???</t>
+  </si>
+  <si>
+    <t>airpods sana hahshaha</t>
+  </si>
+  <si>
+    <t>quero um airpods ... 🤔</t>
+  </si>
+  <si>
+    <t>ficar c os airpods sem bateria a meio do dia é :(((((</t>
+  </si>
+  <si>
+    <t>meu fone quebrou um lado preciso comprar um airpods logo.</t>
+  </si>
+  <si>
+    <t>um dos fones de ouvido meu não está funcionando deuxxx, sofroooo!! deus tira da minha cabeça de querer fazer uma dívida agora e querer um airpods</t>
+  </si>
+  <si>
+    <t>quem consegue comprar o airpods original é patrao demais, bglh é o piratao mrm</t>
+  </si>
+  <si>
+    <t>só por buscar meus airpods 😝</t>
+  </si>
+  <si>
+    <t>comprei um airpods na apple e roubaram a minha encomenda. sim, alguém roubou. eu fiquei chateada, porque né, trabalho duro para comprar minhas coisinhas, e isso acontecer é complicado. mas já tinha me conformado que as pessoas são assim, gostam de sentir que saíram por cima.</t>
+  </si>
+  <si>
+    <t>airpods é algo muito supérfluo?</t>
+  </si>
+  <si>
+    <t>vale a pena dar 150 reais numa réplica de airpods?</t>
+  </si>
+  <si>
+    <t>@marcomiinii compra meu airpods</t>
+  </si>
+  <si>
+    <t>vo compra um airpods fodase vai que eu morro amanhã</t>
+  </si>
+  <si>
+    <t>@filipee_26 vai jogar na máquina dos matrecos e vê se ganhas os airpods</t>
+  </si>
+  <si>
+    <t>@kaori_c_m amiga eu tenho o redmi airpods da xiaomi acho nega bom, pode ficar mega alto se voce quiser e eu ando uns 15 metros pra começar a falhar, mandarei fotos, pq airpod é a melhor coisa odeio dois</t>
+  </si>
+  <si>
+    <t>queria um airpods pra poder ficar ouvindo música na aula</t>
+  </si>
+  <si>
+    <t>@gab_chase sofro que tudo da xiomi é bom né lenda, comprei o redmi airdots e pqpppp bota o airpods da apple pra mamar até engasgar</t>
+  </si>
+  <si>
+    <t>só queria um airpods nada mais 🤧🤧</t>
+  </si>
+  <si>
+    <t>o meu airpods desconectou do celular e começou a tocar the archer bem alto no corredor da escola https://t.co/lv0uhdeqh6</t>
+  </si>
+  <si>
+    <t>alguém que me compre airpods</t>
+  </si>
+  <si>
+    <t>ta o uber q eu peguei eh mto rico ele tem tv no carro iphone xs airpods e um relogio q parece ser mo caro ta</t>
+  </si>
+  <si>
+    <t>o bom de ter airpods é q seu cel no quarto e na cozinha ouve notificação juntamente com a música e pode ignorar todas notificações hsuajsiajsua</t>
+  </si>
+  <si>
+    <t>for sales
+super promo 🔥🔥🔥🔥
+airpods apple 🍏 
+- selado 
+preço : 10.500mts
+ligue/sms : 842120143 https://t.co/0byym8k6dj</t>
+  </si>
+  <si>
+    <t>o airpods e o piercing pqp amooooo https://t.co/1q1onqnafp</t>
+  </si>
+  <si>
+    <t>saudades dos meus airpods, saudades :(</t>
+  </si>
+  <si>
+    <t>o que mais me espanta nessa foto é que airpods podem ser coloridos????
+gyeheon já ta me espantando com esse novo look desde os teasers, nem fico mais surpresa https://t.co/xtmzpdaiij</t>
+  </si>
+  <si>
+    <t>white girl problem do dia:
+estraguei um dos meus airpods, é isto.</t>
+  </si>
+  <si>
+    <t>eu não queria, mas vou vender meu airpods 😭😡</t>
+  </si>
+  <si>
+    <t>pior coisa que a apple já fez! só pra obrigar as pessoas a comprarem o airpods 🙄</t>
+  </si>
+  <si>
+    <t>eu já perdi o airpods 10x só hoje</t>
+  </si>
+  <si>
+    <t>quem vai me dar um airpods de aniversário????</t>
+  </si>
+  <si>
+    <t>ela perdeu perdeu meus airpods</t>
+  </si>
+  <si>
+    <t>queria taaaanto airpods, mas só vendendo o próprio celular pra adquirir um 🤣</t>
+  </si>
+  <si>
+    <t>ai eu aceitei o não e pedi um airpods, d levei outro não rsrsrs dias de luta dias de glória meus camaradas</t>
+  </si>
+  <si>
+    <t>@marchwill nao esquece de fazer o vídeo que prometeu falando da skin do seu airpods black. valeu!!!</t>
+  </si>
+  <si>
+    <t>fiquei 20min vendo um cara fazer um airpods de ouro</t>
+  </si>
+  <si>
+    <t>@angellktty @_hdias_ nem airpods tenho</t>
+  </si>
+  <si>
+    <t>ganhei um airpods com entra p2 do meu primo</t>
+  </si>
+  <si>
+    <t>so de raiva final do mes vou comprar um airpods pra flex na gabriela tbm</t>
+  </si>
+  <si>
+    <t>me tornei quem eu mais temia: uma pessoa usando airpods kkkk https://t.co/1fdzwdfsbx</t>
+  </si>
+  <si>
+    <t>acabei de descobrir que minha vida foi uma ilusao pq eu achava que a partir do iphone 8 o fone era airpods sem fio</t>
+  </si>
+  <si>
+    <t>meu pai comprou um airpods do amigo gringo dele, os surtos</t>
+  </si>
+  <si>
+    <t>eu passo tanto tempo com os airpods no ouvido que quando eu não tô eu acho q eu tô e quando eu do eu acho que eu não to 
+entenderam</t>
+  </si>
+  <si>
+    <t>[03/09 20:51] igrr: https://t.co/cyfmgkajku - transformei airpods em 18k airgolds
+[03/09 20:51] igrr: fazer com o teu na aula da vanessa</t>
+  </si>
+  <si>
+    <t>eh pre requisito ter airpods pra treinar aqui onde eu treino bixo
+todo mundo usa</t>
+  </si>
+  <si>
+    <t>a esta hora tava a pausar de airpods e não precisava de vos mendigar</t>
+  </si>
+  <si>
+    <t>@diegogon669 e serio tbm tenho um pouco de ouró pra dar pro cadeirante grisalhao fazer um airpods 18k pra mim</t>
+  </si>
+  <si>
+    <t>terminar o namoro é ruim, mais você já perdeu um fone do seu par de airpods? isso sim parte o coração....</t>
+  </si>
+  <si>
+    <t>@hugartbyligion quero esse aq oh https://t.co/weqbm20ky5</t>
+  </si>
+  <si>
+    <t>só conseguem ver a potência máxima dos airpods quando tá tudo em silêncio</t>
+  </si>
+  <si>
+    <t>comprar airpods para estar a ouvir música bem alto com o cabelo solto a tapar os fones e ignorar toda a gente pq eu posso 🤪</t>
+  </si>
+  <si>
+    <t>@gabihmn_ infelizmente meus airpods estao descarregados e eu acho que eu esqueci a caixinha na chanel 🥵🥵</t>
+  </si>
+  <si>
+    <t>so qro q passa logo meu aniversario p mim ganha meus airpods logo, odeio niver, parece q a pessoa é obrigada a te parabenizar pq vc nasceu nesse dia, pelo menos no meu caso nngm me da parabens ou uma festa surpresa</t>
+  </si>
+  <si>
+    <t>só queria uma capinha do dumbo pro meu airpods saco</t>
+  </si>
+  <si>
+    <t>quero uns airpods, vamos lá começar a poupar</t>
+  </si>
+  <si>
+    <t>“perdi 50% da minha postura de bandido mau” disse lucas, o filho único, com seus airpods, jaquetinha north face padrão colégio positivo com um total de 0 pelos no saco.</t>
+  </si>
+  <si>
+    <t>vou começar a vender airpods separados. esta merda vende rápido</t>
+  </si>
+  <si>
+    <t>procuro namorada pra me dar um airpods ou air dots...</t>
+  </si>
+  <si>
+    <t>desisto dos meus "airpods"</t>
+  </si>
+  <si>
+    <t>espero q meus airpods não quebrem tão rápido</t>
+  </si>
+  <si>
+    <t>já tão a expor a cara nessas fotos só para mostrar os airpods ahahahaha https://t.co/pwmexc1xrh</t>
+  </si>
+  <si>
+    <t>queria um airpods, o problema é só o preço</t>
+  </si>
+  <si>
+    <t>queria ter um airpods mas não tenho dinheiro pra isso</t>
+  </si>
+  <si>
+    <t>to puta pq esqueci meu airpods 🥵</t>
+  </si>
+  <si>
+    <t>o grave de um dos meus airpods ta muito estranho</t>
+  </si>
+  <si>
+    <t>igor levou meu airpods p casa 😔
+a volta é triste sem música</t>
+  </si>
+  <si>
+    <t>fudeu, perdi meu airpods 🙄</t>
+  </si>
+  <si>
+    <t>minha prima “roubou” meus airpods durante 1 semana inteira ¿¿</t>
+  </si>
+  <si>
+    <t>quero mt uns airpods</t>
+  </si>
+  <si>
+    <t>o gajo tem airpods comeq alguém recusa isto https://t.co/7mcl3pqupy</t>
+  </si>
+  <si>
+    <t>a caixinha do meu airpods ta toda arranjada puta q pariu</t>
+  </si>
+  <si>
+    <t>embora nenhum usuário de airpod que eu conheci assumiu que eles caiam da orelha temos aqui uma matéria interessante https://t.co/vlpjhszk2b</t>
+  </si>
+  <si>
+    <t>plus aquele loiro todo torto de ontem, com os seus airpods a ouvir música no spotify. olhei para trás e ele já estava a olhar 🥴🤭</t>
+  </si>
+  <si>
+    <t>@xicamaria11 *airpods suponho eu</t>
+  </si>
+  <si>
+    <t>oloco! https://t.co/rqd51o4e0u</t>
+  </si>
+  <si>
+    <t>alguém pode me dar um airpods de presente?</t>
+  </si>
+  <si>
+    <t>@anathaismatos era só ter comprado um airpods 😅</t>
+  </si>
+  <si>
+    <t>comprar airpods</t>
+  </si>
+  <si>
+    <t>caralho eu quero muito airpods</t>
+  </si>
+  <si>
+    <t>alguém sabe como encontrar os airpods mas só um?</t>
+  </si>
+  <si>
+    <t>alguem com airpods que fale por favor</t>
+  </si>
+  <si>
+    <t>gosto muito dos airpods mas eles não me dão a segurança dos fones com fio. parece que não dá pra se ter tudo na vida, né?</t>
+  </si>
+  <si>
+    <t>encontrar fones para iphone 8 é legit procurar uma agulha no palheiro, e os cabos que ligam o iphone a fones são mega sensíveis e eu já tive airpods mas odiei 😭</t>
+  </si>
+  <si>
+    <t>quem tem o airpods? https://t.co/lbar7gllkh</t>
+  </si>
+  <si>
+    <t>o tws i200 é o único fone que realmente se aproxima em todos os sentidos ao airpods original.
+fone i200 tws smart sensor wireless charging 2 geração airpods https://t.co/osdgcg17rl via @youtube</t>
+  </si>
+  <si>
+    <t>quero uns airpods!!!</t>
+  </si>
+  <si>
+    <t>preciso de um airpods, porra to doida p ouvir música e não posso pq esse crlh está carregando</t>
+  </si>
+  <si>
+    <t>meu airpods parou de funcionar, meu pai pegou p ele e nn vai me devolver</t>
+  </si>
+  <si>
+    <t>só quero a merda desses airpods e há umas horas estava eu a gozar c a thays.....</t>
+  </si>
+  <si>
+    <t>infelizmente não cheguei na classe burguesa para adquirir um airpods</t>
+  </si>
+  <si>
+    <t>obg pela reza padre de airpods</t>
+  </si>
+  <si>
+    <t>“preciso guardar dinheiro e não gastar com besteira”
+*2 segundos no instagram*
+“meu deusssss uma caixinha de pikachu pro meu airpods” https://t.co/2ga5zimqma</t>
+  </si>
+  <si>
+    <t>pessoal perdendo o fone sem fio no metrô de ny. eu já perdi um lado dos airpods, o único jeito foi recorrer a compra de um novo. triste https://t.co/s2ihsnsmet</t>
+  </si>
+  <si>
+    <t>o airpods ta devorando a bateria do meu celular com a droga do bluetooth</t>
+  </si>
+  <si>
+    <t>se vai funcionar não sei porém meus airpods de cinquenta conto tá de boa até hoje então</t>
+  </si>
+  <si>
+    <t>vou virar vendedor só essa semana vendi 4 airpods só pq pego eles com preço bom kkkkk</t>
+  </si>
+  <si>
+    <t>meu white people problem de hoje: estou incomodado em treinar usando fones com fio e quero airpods</t>
+  </si>
+  <si>
+    <t>airpods são tão pirosos omg i can't</t>
+  </si>
+  <si>
+    <t>sou tão despistada credo, perdi o passe, esqueci me dos airpods na casa dum amigo só tenho a caixinha, ainnn ain só falta perder a cabeça</t>
+  </si>
+  <si>
+    <t>meus airpods chegaram fodase</t>
+  </si>
+  <si>
+    <t>nicolas e seus airpods https://t.co/swcqzcylni</t>
+  </si>
+  <si>
+    <t>airpods foi feito p ouvir musica na aula certeza</t>
+  </si>
+  <si>
+    <t>meus airpods chegaram e eu não quero nem tirar da caixa</t>
+  </si>
+  <si>
+    <t>@marianascp9 quero uns airpods</t>
+  </si>
+  <si>
+    <t>@marianascp9 qual? aquela da estátua? mds espera a matilde está bue fit mds mariana ganha quero uns airpods</t>
+  </si>
+  <si>
+    <t>eu e as minhas irmãs vamos fazer uma corrida e quem ganhar ganha uns airpods 😂😂</t>
+  </si>
+  <si>
+    <t>@yasminmarcon pô, colegio podia mandar uns airpods pa nois</t>
+  </si>
+  <si>
+    <t>meu airpods chegou aaaaa</t>
+  </si>
+  <si>
+    <t>tweet capitalista sujo: airpods são os melhores fones pro dia a dia</t>
+  </si>
+  <si>
+    <t>alguém quer me dar um apple watch e airpods??</t>
+  </si>
+  <si>
+    <t>os airpods já chegaram!!!</t>
+  </si>
+  <si>
+    <t>eu xingando q ele n botava o celular em modo avião p poder usar os airpods mas dá p usar mesmo no modo avião
+peço desculpa hobi https://t.co/k3tjlkygmu</t>
+  </si>
+  <si>
+    <t>eu comprei um airpods aqui por £9 será que vai funcionar kk</t>
+  </si>
+  <si>
+    <t>airpods são muito bom vai toma no cu 😱😱</t>
+  </si>
+  <si>
+    <t>hoje sonhei que o wani estragou os meus airpods a andar de lime, apanhei um susto quando acordei. @hoodyboy02 se comporta no meu sonho ya?</t>
+  </si>
+  <si>
+    <t>não sabia dos airpods há mais de uma semana... guess what acabei de encontrá-los num bolso dos calções de banho 🙌</t>
+  </si>
+  <si>
+    <t>nem queria comprar os airpods, mas agora que vi os novos que vão sair personalizado yh vou comprar, se perder perdi</t>
+  </si>
+  <si>
+    <t>preferias comprar 150€ de roupa ou comprar uns airpods? — 150€ de roupa mas se alguém me quiser oferecer uns airpods eu aceito kkkk https://t.co/xpvkvmhxef</t>
+  </si>
+  <si>
+    <t>os meus airpods chegaram! 😍</t>
+  </si>
+  <si>
+    <t>airpods é a única coisa que tá salvando minha terça</t>
+  </si>
+  <si>
+    <t>não gosto de fone sem fio tenho airpods e só usei um dia</t>
+  </si>
+  <si>
+    <t>quero comprar uns airpods mas eu sei que os vou perder 🤣</t>
+  </si>
+  <si>
+    <t>incrível! youtuber cria apple airpods de ouro 18k https://t.co/lr88j2ykv4 https://t.co/zbl8u2gzee</t>
+  </si>
+  <si>
+    <t>@aloadt #aloadt como anda a bateria dos airpods de vcs? tenho o meu desde dezembro de 2017, o uso não chega a ser diário mas hoje a bateria não dura 50 minutos. após 2 minutos no case (os fones ficam com 90%) consigo usar por mais uns 15/20 minutos</t>
+  </si>
+  <si>
+    <t>@xtiagoamds6xx compra airpods</t>
+  </si>
+  <si>
+    <t>incrível! youtuber cria apple airpods de ouro 18k ~~ https://t.co/5zlmnx887q</t>
+  </si>
+  <si>
+    <t>acho que perdi os meus airpods</t>
+  </si>
+  <si>
+    <t>podem até achar ridículo mas uso mm os airpods enquanto tomo banho</t>
+  </si>
+  <si>
+    <t>mlk esse cara é foda 
+tranformei airpods em 18k airgolds https://t.co/obkzkbm8qi via @youtube</t>
+  </si>
+  <si>
+    <t>vale a pena comprar airpods?</t>
+  </si>
+  <si>
+    <t>aqui na suíça toda a gente tem airpods</t>
+  </si>
+  <si>
+    <t>era só um airpods é um apple watch na minha vida para eu ficar mas contente 🤦🏿‍♂️🤦🏿‍♂️ 
+não vai demora muito eu vou brota pq quando eu sismo fodeu</t>
+  </si>
+  <si>
+    <t>tô doido querendo um airpods</t>
+  </si>
+  <si>
+    <t>@h0n7g mas você é, tem até airpods novos!</t>
+  </si>
+  <si>
+    <t>se juntar td dinheiro q eu gasto c fone dava p comprar 5 airpods</t>
+  </si>
+  <si>
+    <t>@vantaegfx é tipo comprar aqueles fios "anti-lose" dos airpods em vez de um fone normal, ou tirar a sombrancelha pra pintar outra por cima</t>
+  </si>
+  <si>
+    <t>📱iphone xr vitrine // airpods lacrados 🎧 •prazo de entrega de 10 à 20 dias 📦
+•compre agora em nosso site: link na bio.📍
+em caso de dúvidas entre em contato no nosso whatsapp na aba contato.
+apple shop importados à um click de você. https://t.co/dzck8c3mhp</t>
+  </si>
+  <si>
+    <t>tenho o telemóvel a carregar mas o meu tio emprestou-me os airpods dele 🥺 estou feliz por não ter de escolher entre carregar o tlm ou ouvir música</t>
+  </si>
+  <si>
+    <t>queria tá no shopping comprando tudo q eu quero escutando 7 rings no airpods</t>
+  </si>
+  <si>
+    <t>gente, quem tiver airpods sobrando pode me dar</t>
+  </si>
+  <si>
+    <t>chris evans tem a porra de um airpods mas n troca o celular
+eu desisto https://t.co/zuhhob26kn</t>
+  </si>
+  <si>
+    <t>airpods melhor invençao já que essa buceta de celular n tem entrada pra fone qnd carrega 😡</t>
+  </si>
+  <si>
+    <t>sdds dos meus airpods</t>
+  </si>
+  <si>
+    <t>setembro começou bem! 
+com 5 reais tirei um airpods da máquina 🤩😅 https://t.co/zixispf4fb</t>
+  </si>
+  <si>
+    <t>@carolaimeee ainda prefiro um airpods</t>
+  </si>
+  <si>
+    <t>@carolaimeee prefiro um airpods</t>
+  </si>
+  <si>
+    <t>cb boté el estuche de mis airpods im 😔</t>
+  </si>
+  <si>
+    <t>preciso de um airpods</t>
+  </si>
+  <si>
+    <t>@kaebcake eu aceitava os airpods e depois dava um chute na cara</t>
+  </si>
+  <si>
+    <t>acabei de ver nos recomendados do meu youtube um youtuber idiota que chega do lado e corta fones dos estranhos e dai dá airpods novos pra eles, nao sei se eu rio ou choro do ser humano</t>
+  </si>
+  <si>
+    <t>eduardo tentou colocar meu e-mail vendendo airpods na olx e foi tudo pro dele, e ainda censuraram meu instagram na postagem que ele fez. grande dia, karma is a bitch.</t>
+  </si>
+  <si>
+    <t>@avnerben10 olhei mas eu queria algo como os airpods só que mais barato kkk ai eu vi um tal de itw2 algo assim. comprei dois, saiu por 40 reais kkk</t>
+  </si>
+  <si>
+    <t>não vai ter eu ganhando um iphone 8 plus com um airpods(que deus escute as minhas orações)</t>
+  </si>
+  <si>
+    <t>alguém tem fone airdots ou réplica do airpods pra me relatar</t>
+  </si>
+  <si>
+    <t>quero meus airpods e meu apple watch logooo</t>
+  </si>
+  <si>
+    <t>os airpods carregam completamente só em 10 min wtffffffff</t>
+  </si>
+  <si>
+    <t>agora não sei se compro airpods ou fones normais a mesma</t>
+  </si>
+  <si>
+    <t>vou comprar uns acessórios pro celular e juntar pra comprar um airpods</t>
+  </si>
+  <si>
+    <t>as vezes eu to feliz aí eu escuto tu turu turum (som do airpods com pouca bateria) e fico triste</t>
+  </si>
+  <si>
+    <t>e hoje que a menina do meu setor começou a falar sobre fone de ouvido com meu chefe dai do nada ele tirou o airpods da bolsa dele e deu a ela 
+contador que chama né mores</t>
+  </si>
+  <si>
+    <t>queria entender pq a apple não fez a entrada pra fone do ouvido do iphone7 normal.... pqp meu fone original quebrou desde então já comprei outros 3 e não pega nessa poha... @apple entenda não é pq eu tenho um iphone que sou rica pra tá comprando o airpods original</t>
+  </si>
+  <si>
+    <t>só queria airpods, aff  https://t.co/an2nhpofee</t>
+  </si>
+  <si>
+    <t>esqueci de por os airpods para carregar aí ficou sem bateria na hora que eu sai do crossfit</t>
+  </si>
+  <si>
+    <t>já é a 2º vez que eu perco meu airpods</t>
+  </si>
+  <si>
+    <t>@avnerben10 foi uma versão chinesa dos airpods hihihih</t>
+  </si>
+  <si>
+    <t>hoje ia tranquilo no cais e passa um bacano com uns airpods a andar de trotinete mesmo no meio da estrada e a cantar “sai, sai, sai da minha frente” mas bué alto ahahahha</t>
+  </si>
+  <si>
+    <t>problema burguês do dia: perdi meu airpods e vou ter que usar o beats agora 🥺🥺</t>
+  </si>
+  <si>
+    <t>a apple quer me obrigar a comprar um airpods. não aguento esse celular só com uma entrada 😭😭😭</t>
+  </si>
+  <si>
+    <t>@mecagaskalife airpods x diadema: difícil de aterrizar</t>
+  </si>
+  <si>
+    <t>vei um lado do meu airpods tá quebrando</t>
+  </si>
+  <si>
+    <t>eu só quero meus airpods</t>
+  </si>
+  <si>
+    <t>@pocketbruno1 @dennicius não duvido nada, eu já acho um absurdo comprar um iphone da geração atual e não vir com um par de airpods, até parece q virá caneta kkkk</t>
+  </si>
+  <si>
+    <t>acabei de comprar os airpods, estou arrependido de não os ter comprado logo que saíram</t>
+  </si>
+  <si>
+    <t>mas porque é que eu pensei que uns airpods custavam 30€ ahahah</t>
+  </si>
+  <si>
+    <t>acho que vou vender os airpods por 600 conto..</t>
+  </si>
+  <si>
+    <t>a ganhadora dos airpods foi @simone_archanjo. parabéns! @netbet_brasil https://t.co/anxgkshutl</t>
+  </si>
+  <si>
+    <t>vem amigo vamos até a praça rir dos estudantes do marista q usam airpods</t>
+  </si>
+  <si>
+    <t>comprar meus airpods amanhã siii</t>
+  </si>
+  <si>
+    <t>ou um airpods por 700,00, o fone sem fio da apple, zeradin</t>
+  </si>
+  <si>
+    <t>esqueci meu telefone num caixa de supermercado..... 
+vieram atrás de mim para entregar. malditos airpods</t>
+  </si>
+  <si>
+    <t>queria só que o audio do microfone do airpods n fosse um lixo</t>
+  </si>
+  <si>
+    <t>tranformei airpods em 18k airgolds https://t.co/wbppwq11rg via @youtube</t>
+  </si>
+  <si>
+    <t>airpods valem a pena?</t>
+  </si>
+  <si>
+    <t>gabs: 
+eu: vc tem airpods?
+gabs: nn, vc acha q eu devia ter?
+eu: ue sla kk
+gabs: *aparece 2 dias dps com airpods*</t>
+  </si>
+  <si>
+    <t>me rendi, comprar outro airpods, merda</t>
+  </si>
+  <si>
+    <t>mas essa vossa moda de irem pras festas com os airpods n acaba?</t>
+  </si>
+  <si>
+    <t>deixei perder os meus airpods, outra vez</t>
+  </si>
+  <si>
+    <t>já vou lançar meu airpods</t>
+  </si>
+  <si>
+    <t>da dúvida se compro o apple watch ou o um airpods</t>
+  </si>
+  <si>
+    <t>da série “coisas que eu achava absolutamente a invenção mais imbecil da humanidade e agora aprendi a amar sem fronteiras”: airpods</t>
+  </si>
+  <si>
+    <t>um airpods 1000 reais ta ficando doido caralho</t>
+  </si>
+  <si>
+    <t>fone de ouvido bluetooth - i7 mini
+não perca mais tempo com fios. aproveite nossas novidades em #fonesdeouvido #bluetooth 
+acesse https://t.co/rtmjgkt4cl
+#mirao #distribuidora #descontoavista #fonebluetooth #i7 https://t.co/pf1eiendsd</t>
+  </si>
+  <si>
+    <t>avete le airpods? come vi trovate? pro? contro?</t>
+  </si>
+  <si>
+    <t>@caioquintas2 comprou o airpods ?</t>
+  </si>
+  <si>
+    <t>pa que comprar airpods piratas de 50$? nqv</t>
+  </si>
+  <si>
+    <t>falei pra minha mãe me dar um airpods, aí ela falou que é só cortar o fio do meu fone da apple que fica igual kkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@lucasbadziak me dá seus airpods</t>
+  </si>
+  <si>
+    <t>@hellerju cala a boca voce tem airpods</t>
+  </si>
+  <si>
+    <t>alguém que conheça quem venda apple airpods me chama pfv</t>
+  </si>
+  <si>
+    <t>vou desenrolar esses airpods com minha irmã kkk descobri agora que funciona com samsung tbm 🙂🙄🤦🏻‍♂️</t>
+  </si>
+  <si>
+    <t>airpods nunca te critiquei</t>
+  </si>
+  <si>
+    <t>@macmagazine @lgcribeiro olá pessoal.vcs tiveram sucesso em usar algum dos recursos a baixo do ios 13: 
+-compartilhar musicas com amigos usando airpods
+-compartilhar chegada com o mapas?
+-localizar iphone offline?
+- siri ler mensagens quando estamos com fones
+eu tentei de tudo, e nada funcionou pra mim</t>
+  </si>
+  <si>
+    <t>airpods da natureza https://t.co/vm2ip70fe8</t>
+  </si>
+  <si>
+    <t>no salão da minha mãe toda a gente tem airpods menos eu😣</t>
+  </si>
+  <si>
+    <t>@juhhms ei!! não te conheço mas só pra falar q tenho o meu airpods há mais de 2 anos e ele nuncaaa caiu nem na acad nem quando eu danço nem nada kkkkkk só cai às vezes quando eu vou cumprimentar alguém com beijo na bochecha e a cabeça da pessoa esbarra nele</t>
+  </si>
+  <si>
+    <t>o airpods eh a melhor invenção de todas obrigada apple</t>
+  </si>
+  <si>
+    <t>mas apple, continua sendo apple 👀 https://t.co/dbcwy0vytr</t>
+  </si>
+  <si>
+    <t>pessoas que tem airpods, ele cai da orelha quando vcs suam/fazem exercicios? 
+é pro meu tcc</t>
+  </si>
+  <si>
+    <t>@marinazanluca cara dá pra comprar airpods parcelado com o dinheiro da manutenção</t>
+  </si>
+  <si>
+    <t>apple destaca airpods personalizados na coreia do sul. https://t.co/qvoz3qqmfx https://t.co/zdoohrm5wk</t>
+  </si>
+  <si>
+    <t>eu consegui fazer a proeza de perder meus airpods na escola pq tão burra</t>
+  </si>
+  <si>
+    <t>fala aeee pessoal da @macmagazine, ja viram esse cara banhando o airpods dele em ouro 18k, muito bom o trabalho do cara. #airgolds</t>
+  </si>
+  <si>
+    <t>eu só quero um airpods pra esconder de baixo do cabelo e ninguém ver q eu to de fone</t>
+  </si>
+  <si>
+    <t>só hoje eu descobri que vem um cabo dentro da caixa do airpods, meu jesus amado isso que dá não ser curioso</t>
+  </si>
+  <si>
+    <t>tava olhando outros tipos de fones sem fio mas aparentemente terei q comprar airpods mesmo pois todos os outros q vi ate agora são de enfiar até a alma do fone no ouvido detesto</t>
+  </si>
+  <si>
+    <t>gente pelo amor d deus eu preciso daqueles airpods p assistir friends durante essas aulas insuportáveis</t>
+  </si>
+  <si>
+    <t>não estou conseguindo carregar meus airpods mais que beleza</t>
+  </si>
+  <si>
+    <t>meu airpods já caiu tanto no chão que se ele parar de pegar do nada, eu não vou estranhar</t>
+  </si>
+  <si>
+    <t>bom jesus centro, a maior concentração de airpods por metro quadrado</t>
+  </si>
+  <si>
+    <t>abrindo a mochila e vendo que esqueci os airpods em casa https://t.co/zn8hnqiphm</t>
+  </si>
+  <si>
+    <t>agora to um nojo com meu airpods 😫</t>
+  </si>
+  <si>
+    <t>@fcprafa se não são das seguintes marcas não prestam
+beats
+airpods
+samsungbuds
+(não está por ordem embora toda a gente saiba que beats é em primeiro)</t>
+  </si>
+  <si>
+    <t>se tivesse airpods nunca os tirava dos ouvidos</t>
+  </si>
+  <si>
+    <t>a galera da minha escola tem airpods :0 me sentindo matutah</t>
+  </si>
+  <si>
+    <t>fone de ouvido - bluetooth - airpods
+por apenas 3x de r$ 39,97
+frete grátis
+06:00:01 02/09/2019 - https://t.co/pmpmikih6i</t>
+  </si>
+  <si>
+    <t>o logótipo da apple vai mudar no novo iphone e há uma razão para isso https://t.co/iytmmxrymf https://t.co/7wk4v5rnq1</t>
+  </si>
+  <si>
+    <t>meu white problem patrícia hoje é que perdi 1 airpods e nao sei o que fazer, quero chorar</t>
+  </si>
+  <si>
+    <t>quero um airpods 😞</t>
+  </si>
+  <si>
+    <t>@pzrkchaewon amigo mas eu to so q n quero mais normal preciso do airpods se vc souber um esquema</t>
+  </si>
+  <si>
+    <t>ouvir música em 8d com o airpods no volume máximo 🤤🤤</t>
+  </si>
+  <si>
+    <t>quero um airpods da apple</t>
+  </si>
+  <si>
+    <t>to vendendo uma capinha de airpods no mercado livre kkkkkkk devia ta dormindo</t>
+  </si>
+  <si>
+    <t>porra o airpods 2 foi a melhor compra q fiz em mt tempo</t>
+  </si>
+  <si>
+    <t>comprar um airpods e um play 4 e fica mec.</t>
+  </si>
+  <si>
+    <t>só queria uns airpods</t>
+  </si>
+  <si>
+    <t>airpods chato não descarrega nunca</t>
+  </si>
+  <si>
+    <t>eu qr mt  comprar um airpods mas to cm medo de comprar e o seventeen fzr show no bras</t>
+  </si>
+  <si>
+    <t>quase morri, achei q tinha perdido meu airpods</t>
+  </si>
+  <si>
+    <t>era só um airpods afff n aguento mais ter q deixar de ouvir música pra carregar o cel</t>
+  </si>
+  <si>
+    <t>ok que ele deu airpods depois mas ne k</t>
+  </si>
+  <si>
+    <t>acabei de perder um dos meus airpods. eu nunca quis tanto arrancar meus olhos com as mãos.</t>
+  </si>
+  <si>
+    <t>meus airpods vão chegar essa semana finalmene</t>
+  </si>
+  <si>
+    <t>pqp o cara fez um airpods de ouro maciço  mano do céu https://t.co/wiqx6ytmjg</t>
+  </si>
+  <si>
+    <t>fone samsung supera apple com som mais potente e menor preço https://t.co/mer7rxnrhz</t>
+  </si>
+  <si>
+    <t>queria ver se pegava uns airpods novos</t>
+  </si>
+  <si>
+    <t>airpods é a melhor coisa que já inventaram pqp</t>
+  </si>
+  <si>
+    <t>mal receber vou buscar os airpods fds</t>
+  </si>
+  <si>
+    <t>terminal 3 do aeroporto de guarulhos maior concentração de airpods por m2</t>
+  </si>
+  <si>
+    <t>quero airpods da xiaomi capitalismo pq me influenciastes mais um dia para ficar querendo besteira</t>
+  </si>
+  <si>
+    <t>chocada que airpods ta 1600 no brasil e aqui achei por 160 na amazon, comprei mas eh claro</t>
+  </si>
+  <si>
+    <t>primeiro tombo do meu airpods na rua 💔 e já riscou, sofro</t>
+  </si>
+  <si>
+    <t>aposto que estes cães têm airpods https://t.co/vukwectots</t>
+  </si>
+  <si>
+    <t>e o boff que trocou sem querer os nossos airpods 🤦🏼‍♀️</t>
+  </si>
+  <si>
+    <t>caraca se tem uma coisa que me irrita é quando meu fone de ouvido fica todo embolado, não vejo a hora dos meus airpods chegarem 😩</t>
+  </si>
+  <si>
+    <t>meu pai pegou meu airpods e falou “tem um fio dental aqui perdido” kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@cross_gp o cara tem airpods de ouro
+https://t.co/mhyvgzuwnx</t>
+  </si>
+  <si>
+    <t>eu queria comprar aquele fone sem fio da huawei que é quase igual um airpods, só que é bem mais barato kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>o miojo sem sachê 🤝 fio para airpods 
+piores invenções do capitalismo</t>
+  </si>
+  <si>
+    <t>@figliadi1putana meu airpods by xiaomi as vezes tem uma perca de sinal, essa collab da apple e xiaomi viu</t>
+  </si>
+  <si>
+    <t>de 10 pessoas que eu vejo na rua, no mínimo 6 estão usando airpods. desde quando essa joça ficou barata?</t>
+  </si>
+  <si>
+    <t>muita gente com airpods no #mercadodacomida porquê?? nesse barulho todo 😕</t>
+  </si>
+  <si>
+    <t>mais uma da saga perdi meu airpods em casa</t>
+  </si>
+  <si>
+    <t>@jardelsallez recomendo botar um cabo no airpods p num perder</t>
+  </si>
+  <si>
+    <t>eu e airpods</t>
+  </si>
+  <si>
+    <t>@mengaorcomics @naoestive o joão de deus usa tb (nem sempre) mas é um airpods (o sem fio) e um normal da apple com fio. esse aí só faz pra se aparecer msm, pqp.
+se bem que hj pode ser necessário, pq o felipão na entrevista antes do jogo não conseguia ouvir o repórter por causa da torcida hahahaahha</t>
+  </si>
+  <si>
+    <t>não vai ter eu ganhando um airpods https://t.co/mmtkutkrnh</t>
+  </si>
+  <si>
+    <t>quero tanto uns airpods eit</t>
+  </si>
+  <si>
+    <t>acabei de ficar quase 12 minutos vendo um video de um cara transformar airpods normais em airpods de ouro.</t>
+  </si>
+  <si>
+    <t>airpods foram o melhor investimento de smp</t>
+  </si>
+  <si>
+    <t>huawei prepara-se para combater os airpods com os novos freebuds https://t.co/aki5acmdbg https://t.co/xqgrsw984y</t>
+  </si>
+  <si>
+    <t>o airpods pqp euuuuuu https://t.co/iijeout5lj</t>
+  </si>
+  <si>
+    <t>apple prepara iphone pro com foco em câmeras, novos ipads, airpods, macbook e muito mais; confira
+https://t.co/iimokxstfr</t>
+  </si>
+  <si>
+    <t>guardando meu dinheiro pra comprar um airpods</t>
+  </si>
+  <si>
+    <t>queria tanto um airpods, esse fone resolveria todos os meu problemas</t>
+  </si>
+  <si>
+    <t>na última atualização do ios 13, agora aparece o desenho dos airpods no controle de volume. tão bonitinho https://t.co/sto2jj96m9</t>
+  </si>
+  <si>
+    <t>@euisabellyy me dar esse airpods aí kkkkk</t>
+  </si>
+  <si>
+    <t>tava vendo o video de um cara fazendo airpods dourado. quero isso no meu pra ontem</t>
+  </si>
+  <si>
+    <t>vovó patrocinou airpods 😍</t>
+  </si>
+  <si>
+    <t>perdi meu airpods pqp</t>
+  </si>
+  <si>
+    <t>vendo capa preta de silicone para airpods-mais info dm📩</t>
+  </si>
+  <si>
+    <t>@sailor_boo eu vo te dar airpods xiu</t>
+  </si>
+  <si>
+    <t>gente vo comprar um airpods me rendi a essa caralho dps que meu fone quebrou pela 5278282929 vez</t>
+  </si>
+  <si>
+    <t>comprei meus airpods</t>
+  </si>
+  <si>
+    <t>comprei uns airpods, sai fiquei arrependido 😂</t>
+  </si>
+  <si>
+    <t>ir ao mac , deixar os airpods em cima do tabuleiro e o meu pai ter a gentilesa de arrumar o tabuleiro foi do caralho #
+resultado foram uns airpods c crlh :(</t>
+  </si>
+  <si>
+    <t>#insónias nem dinheiro para uns airpods já tem #thecriseisreal :/
+(📸: @bystpt) 
+#freeinsónias @insoniascarvao https://t.co/qjsxpqvmrb</t>
+  </si>
+  <si>
+    <t>homens heteros e porque se sentem na obrigação de tirar foto com seus airpods hoje no animal planet</t>
+  </si>
+  <si>
+    <t>@bystpt @insoniascarvao não se pusesse a comprar airpods...mesmo à novo rico.</t>
+  </si>
+  <si>
+    <t>airpods com case de recarga sem fio por $133. 😱 https://t.co/dabpopnjo0</t>
+  </si>
+  <si>
+    <t>acho que è bug do @spotify , por q acabei de testar em outro app e funcionou perfeitamente , tanto o app quanto o sensor do airpods</t>
+  </si>
+  <si>
+    <t>eu so quero q meus airpods cheguem logooooooo</t>
+  </si>
+  <si>
+    <t>mais alguem ae ta tendo problema com os airpods ? o meu nao ta funcionando o sensor , queria saber se è so o meu...</t>
+  </si>
+  <si>
+    <t>liked on youtube: review: powerbeats pro é o substituto dos airpods para os ávidos esportistas https://t.co/3w9lrtmmw2</t>
+  </si>
+  <si>
+    <t>to doido pra comprar o airpods viu</t>
+  </si>
+  <si>
+    <t>lá na korea, a #apple apresenta os famosos airpods com caixinhas customizadas. ainda não se sabe ao certo se é uma promo de terceiros ou uma venda que será realizada pela própria empresa. #behaviordesigner #neuromarekting #marketing #healthcare #gestaodepessoas #futuro https://t.co/jwt3vzu5ax</t>
+  </si>
+  <si>
+    <t>@gbeneduzzi mano eu ainda to mto chocada tipo é um airpods véi</t>
+  </si>
+  <si>
+    <t>@juninhovenicio1 só faltou o airpods</t>
+  </si>
+  <si>
+    <t>um dos meus airpods tá fzd barulho estranho se quebrou fodeu p mim</t>
+  </si>
+  <si>
+    <t>vou dar flex com os meus airpods comprados numa loja chinesa???
+sim eu vou https://t.co/zh5q1ylhhd</t>
+  </si>
+  <si>
+    <t>@_iconedopop vale mais comprar essa outra coisa etc
+ele é um ótimo acessório, mas não é tipo airpods que vc vai sentir falta de não usar..sabe?
+ele vai te ajudar bem a ver hora, trocar de música, track desempenho físico mas de resto as features dele vc vai usar menos</t>
+  </si>
+  <si>
+    <t>tenho é de comprar uns airpods</t>
+  </si>
+  <si>
+    <t>ps4 pro/slim $150 dm! #airpods #iphone #android10 #oneplus7pro #48mpandroidone   #applepay #apple #ipad #rt #samsung #ps4 #game #playstation #ps5 #realme5pro #xbox #xboxgc #xboxonex #ipadpro #ipadair #ipadair2019 #iphonexsmax #iphone11 #iphonex #iphonexr #macbookpro #macbookair https://t.co/q76ud0yo2x</t>
+  </si>
+  <si>
+    <t>funda para airpods solo 0,5€ https://t.co/gv3lboienf https://t.co/xjyzj9qc9a</t>
+  </si>
+  <si>
+    <t>@maaatyyy para o mesmo sítio dos airpods? 🤭</t>
+  </si>
+  <si>
+    <t>quero mt um airpods</t>
+  </si>
+  <si>
+    <t>@iampopzone os airpods</t>
+  </si>
+  <si>
+    <t>só depois de sair de casa percebi que n trouxe os airpods</t>
+  </si>
+  <si>
+    <t>sonhinho de consumo juntar dinheiro pra um macbook, um apple watch e um airpods</t>
+  </si>
+  <si>
+    <t>mas qual é a vossa de usarem airpods numa festa que tem música nas colunas??</t>
+  </si>
+  <si>
+    <t>queria sla, só um iphone xr e airpods</t>
+  </si>
+  <si>
+    <t>airpods pq tao caros</t>
+  </si>
+  <si>
+    <t>af usar airpods no notebook windows é muito blé, será que é assim no mac também?</t>
+  </si>
+  <si>
+    <t>é oficial perdi os airpods</t>
+  </si>
+  <si>
+    <t>airpods em ouro 18 k...      trabalho fantástico https://t.co/bq3njqscui</t>
+  </si>
+  <si>
+    <t>@fiercemajeure the airpods sksksksksks</t>
+  </si>
+  <si>
+    <t>trabalhar muito pra comprar meus airpods</t>
+  </si>
+  <si>
+    <t>gente o menino falando que a vida dele eh muito difícil pq ele queria muito um airpods e ele aparecendo no outro dia com um kk</t>
+  </si>
+  <si>
+    <t>eu vou roubar aql airpods do davi e se ele reclamar vai ser pior</t>
+  </si>
+  <si>
+    <t>@lucasgauterie eu sonho em ter um airpods af</t>
+  </si>
+  <si>
+    <t>era só um airpods na minha vida</t>
+  </si>
+  <si>
+    <t>uma das minhas melhores aquisições foi o airpods na moral</t>
+  </si>
+  <si>
+    <t>eu - “mãe comprei os novos airpods”
+mãe - “quanto?” 
+eu - “175 dólares”
+mãe - “ o que??? meu deus lucas 700 reias num fone???”
+3 semanas depois...
+mãe - “lucas compra um fone desse pra mim por favor obrigada...”</t>
+  </si>
+  <si>
+    <t>ouvi dizer q airpods dao cancer???? natural selection against capitalism??</t>
+  </si>
+  <si>
+    <t>ganhei um airpods do meu pai sem pedir 😍😍😍😍😍🤘🏾🤘🏾 amo um pai ❤️😍😍🤘🏾🤘🏾❤️❤️😍</t>
+  </si>
+  <si>
+    <t>@apyus o medo constante de perder a caixinha ou os meus airpods.</t>
+  </si>
+  <si>
+    <t>acha q airpods valem o q custam? pode falar o q acha deles? — eu gosto viu uso todos os dias pra mim valeu a pena sim https://t.co/npevd9vzl9</t>
+  </si>
+  <si>
+    <t>chegouuuuuu a case do meu airpods e cara ficou muito lindoooooo</t>
+  </si>
+  <si>
+    <t>pq a porra desse airpods ta fazendo isso kkkk</t>
+  </si>
+  <si>
+    <t>felizona com meus airpods</t>
+  </si>
+  <si>
+    <t>mas como é que se vê a bateria dos airpods caralho</t>
+  </si>
+  <si>
+    <t>mano eu preciso ir na balada aqui de airpods curtir um bailinho</t>
+  </si>
+  <si>
+    <t>eu quero mtt um airpods.. arrependida dms d nn ter comprado na viagem afff</t>
+  </si>
+  <si>
+    <t>minha mãe faz merda (comprou meu álbum de fotos da formatura do 9° ano, que eu não queria, chorei p ela n comprar e ela tava um fds) eu fico putassa e ela vem querendo me agradar falando que vai me dar um airpods, vai lavar a casa da cachorra né</t>
+  </si>
+  <si>
+    <t>hoje sai sem meus airpods q loucura</t>
+  </si>
+  <si>
+    <t>comprei o airpods</t>
+  </si>
+  <si>
+    <t>@vulgov1ctor cara o meu medo é so pq eu nunca gostei de fone de borrachinha pq sempre caía do meu ouvido, sempre preferi fone c formato do airpods mas n vo pagar um airpods ate pq nem iphone eu tenho, mas ai to c medo de comprar esses in ear sem fio e n gostar tb :///</t>
+  </si>
+  <si>
+    <t>ganhei um airpods falso que fica piscando azul
+mano..... pq bota uma porra q fica piscando, se n tivesse essa luz seria pfto funciona bem e tudo mais</t>
+  </si>
+  <si>
+    <t>não sei como minha caixinha do airpods não quebrou até hoje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,31 +3152,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1765,7 +3209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1797,27 +3241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,24 +3275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2042,2421 +3450,2516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y139" sqref="Y139"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="Y6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="Y11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="Y12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="Y16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="Y17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="Y18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="Y19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="Y22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="Y23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="Y24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="Y25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="Y26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="Y27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="Y29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="Y31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="Y32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="Y36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="Y38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="Y39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="Y41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="Y45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="Y46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="Y48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="Y49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="Y51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="Y52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="Y53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="Y55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="Y57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="Y58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="Y59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="Y60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="Y61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="Y63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="Y65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="Y66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="Y67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="Y69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="Y70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="Y71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="Y73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="Y75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="Y76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="Y77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="Y78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="Y79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="Y80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="Y81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="Y83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="Y84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="Y86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="Y87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="Y89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="Y90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="Y91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="Y92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="Y93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="Y94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="Y95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="Y96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="Y97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="Y98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="Y99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="Y100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="Y101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="Y102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="Y103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="Y104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="Y105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="Y106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="Y107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="Y109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="Y113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="Y115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="Y116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="Y117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="Y118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="Y119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="Y120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="Y121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="Y122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="Y123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="Y124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="Y125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="Y126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="Y127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="Y128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="Y131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="Y132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="Y133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="Y134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="Y135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="Y136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="Y137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="Y138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="Y140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="Y141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="Y142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="Y143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="Y144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="Y145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="Y146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="Y147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="Y148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="Y149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="Y150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="Y151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="Y152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="Y153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="Y154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="Y155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="Y156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="Y157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="Y158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="Y160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="Y161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="Y162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="Y163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="Y164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="Y166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="Y167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="Y168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="Y169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="Y171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="Y172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="Y173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="Y174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="Y175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="Y176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="Y177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="Y178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="Y179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="Y180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="Y182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="Y183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="Y184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="Y185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="Y186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="Y188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="Y189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="Y190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="Y191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="Y192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="Y193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="Y195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="Y196">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="Y197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="Y198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="Y199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="Y200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="Y201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="Y202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="Y203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="Y204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="Y205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="Y206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="Y207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="Y208">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="Y209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="Y210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="Y211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="Y212">
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="Y213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="Y214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="Y215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="Y216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="Y217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="Y218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="Y219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="Y220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="Y221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>221</v>
       </c>
-      <c r="Y222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
         <v>222</v>
       </c>
-      <c r="Y223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>223</v>
       </c>
-      <c r="Y224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
         <v>224</v>
       </c>
-      <c r="Y225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>225</v>
       </c>
-      <c r="Y226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
         <v>226</v>
       </c>
-      <c r="Y227">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>227</v>
       </c>
-      <c r="Y228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
         <v>228</v>
       </c>
-      <c r="Y229">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>229</v>
       </c>
-      <c r="Y230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
         <v>230</v>
       </c>
-      <c r="Y231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>231</v>
       </c>
-      <c r="Y232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
         <v>232</v>
       </c>
-      <c r="Y233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>233</v>
       </c>
-      <c r="Y234">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
         <v>234</v>
       </c>
-      <c r="Y235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>235</v>
       </c>
-      <c r="Y236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
         <v>236</v>
       </c>
-      <c r="Y237">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>237</v>
       </c>
-      <c r="Y238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>238</v>
       </c>
-      <c r="Y239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>239</v>
       </c>
-      <c r="Y240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
         <v>240</v>
       </c>
-      <c r="Y241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>241</v>
       </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
         <v>242</v>
       </c>
-      <c r="Y243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>243</v>
       </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
         <v>244</v>
       </c>
-      <c r="Y245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
         <v>245</v>
       </c>
-      <c r="Y246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
         <v>246</v>
       </c>
-      <c r="Y247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>247</v>
       </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
         <v>248</v>
       </c>
-      <c r="Y249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>249</v>
       </c>
-      <c r="Y250">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>250</v>
       </c>
-      <c r="Y251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>251</v>
       </c>
-      <c r="Y252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
         <v>252</v>
       </c>
-      <c r="Y253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>253</v>
       </c>
-      <c r="Y254">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
         <v>254</v>
       </c>
-      <c r="Y255">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>255</v>
       </c>
-      <c r="Y256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
         <v>256</v>
       </c>
-      <c r="Y257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>257</v>
       </c>
-      <c r="Y258">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>258</v>
       </c>
-      <c r="Y259">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>259</v>
       </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
         <v>260</v>
       </c>
-      <c r="Y261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>261</v>
       </c>
-      <c r="Y262">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
         <v>262</v>
       </c>
-      <c r="Y263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>263</v>
       </c>
-      <c r="Y264">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
         <v>264</v>
       </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>265</v>
       </c>
-      <c r="Y266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
         <v>266</v>
       </c>
-      <c r="Y267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>267</v>
       </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
         <v>268</v>
       </c>
-      <c r="Y269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>269</v>
       </c>
-      <c r="Y270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>270</v>
       </c>
-      <c r="Y271">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>271</v>
       </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
         <v>272</v>
       </c>
-      <c r="Y273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>273</v>
       </c>
-      <c r="Y274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
         <v>274</v>
       </c>
-      <c r="Y275">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>275</v>
       </c>
-      <c r="Y276">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
         <v>276</v>
       </c>
-      <c r="Y277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
         <v>277</v>
       </c>
-      <c r="Y278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
         <v>278</v>
       </c>
-      <c r="Y279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
         <v>279</v>
       </c>
-      <c r="Y280">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>280</v>
       </c>
-      <c r="Y281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
         <v>281</v>
       </c>
-      <c r="Y282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
         <v>282</v>
       </c>
-      <c r="Y283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
         <v>283</v>
       </c>
-      <c r="Y284">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>284</v>
       </c>
-      <c r="Y285">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="Y286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
         <v>286</v>
       </c>
-      <c r="Y287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
         <v>287</v>
       </c>
-      <c r="Y288">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
         <v>288</v>
       </c>
-      <c r="Y289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
         <v>289</v>
       </c>
-      <c r="Y290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
         <v>290</v>
       </c>
-      <c r="Y291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
         <v>291</v>
       </c>
-      <c r="Y292">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
         <v>292</v>
       </c>
-      <c r="Y293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
         <v>293</v>
       </c>
-      <c r="Y294">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
         <v>294</v>
       </c>
-      <c r="Y295">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
         <v>295</v>
       </c>
-      <c r="Y296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
         <v>296</v>
       </c>
-      <c r="Y297">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
         <v>297</v>
       </c>
-      <c r="Y298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
         <v>298</v>
       </c>
-      <c r="Y299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
         <v>299</v>
       </c>
-      <c r="Y300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
         <v>300</v>
       </c>
-      <c r="Y301">
-        <v>2</v>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4465,1016 +5968,2361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A470"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>501</v>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>964</v>
       </c>
     </row>
   </sheetData>

--- a/airpods.xlsx
+++ b/airpods.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B0618E6D-5659-3948-8ECF-73E3640E419B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="749">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2397,710 +2403,17 @@
     <t>airpods é a única coisa que tá salvando minha terça</t>
   </si>
   <si>
-    <t>não gosto de fone sem fio tenho airpods e só usei um dia</t>
-  </si>
-  <si>
-    <t>quero comprar uns airpods mas eu sei que os vou perder 🤣</t>
-  </si>
-  <si>
-    <t>incrível! youtuber cria apple airpods de ouro 18k https://t.co/lr88j2ykv4 https://t.co/zbl8u2gzee</t>
-  </si>
-  <si>
-    <t>@aloadt #aloadt como anda a bateria dos airpods de vcs? tenho o meu desde dezembro de 2017, o uso não chega a ser diário mas hoje a bateria não dura 50 minutos. após 2 minutos no case (os fones ficam com 90%) consigo usar por mais uns 15/20 minutos</t>
-  </si>
-  <si>
-    <t>@xtiagoamds6xx compra airpods</t>
-  </si>
-  <si>
-    <t>incrível! youtuber cria apple airpods de ouro 18k ~~ https://t.co/5zlmnx887q</t>
-  </si>
-  <si>
-    <t>acho que perdi os meus airpods</t>
-  </si>
-  <si>
-    <t>podem até achar ridículo mas uso mm os airpods enquanto tomo banho</t>
-  </si>
-  <si>
-    <t>mlk esse cara é foda 
-tranformei airpods em 18k airgolds https://t.co/obkzkbm8qi via @youtube</t>
-  </si>
-  <si>
-    <t>vale a pena comprar airpods?</t>
-  </si>
-  <si>
-    <t>aqui na suíça toda a gente tem airpods</t>
-  </si>
-  <si>
-    <t>era só um airpods é um apple watch na minha vida para eu ficar mas contente 🤦🏿‍♂️🤦🏿‍♂️ 
-não vai demora muito eu vou brota pq quando eu sismo fodeu</t>
-  </si>
-  <si>
-    <t>tô doido querendo um airpods</t>
-  </si>
-  <si>
-    <t>@h0n7g mas você é, tem até airpods novos!</t>
-  </si>
-  <si>
-    <t>se juntar td dinheiro q eu gasto c fone dava p comprar 5 airpods</t>
-  </si>
-  <si>
-    <t>@vantaegfx é tipo comprar aqueles fios "anti-lose" dos airpods em vez de um fone normal, ou tirar a sombrancelha pra pintar outra por cima</t>
-  </si>
-  <si>
-    <t>📱iphone xr vitrine // airpods lacrados 🎧 •prazo de entrega de 10 à 20 dias 📦
-•compre agora em nosso site: link na bio.📍
-em caso de dúvidas entre em contato no nosso whatsapp na aba contato.
-apple shop importados à um click de você. https://t.co/dzck8c3mhp</t>
-  </si>
-  <si>
-    <t>tenho o telemóvel a carregar mas o meu tio emprestou-me os airpods dele 🥺 estou feliz por não ter de escolher entre carregar o tlm ou ouvir música</t>
-  </si>
-  <si>
-    <t>queria tá no shopping comprando tudo q eu quero escutando 7 rings no airpods</t>
-  </si>
-  <si>
-    <t>gente, quem tiver airpods sobrando pode me dar</t>
-  </si>
-  <si>
-    <t>chris evans tem a porra de um airpods mas n troca o celular
-eu desisto https://t.co/zuhhob26kn</t>
-  </si>
-  <si>
-    <t>airpods melhor invençao já que essa buceta de celular n tem entrada pra fone qnd carrega 😡</t>
-  </si>
-  <si>
-    <t>sdds dos meus airpods</t>
-  </si>
-  <si>
-    <t>setembro começou bem! 
-com 5 reais tirei um airpods da máquina 🤩😅 https://t.co/zixispf4fb</t>
-  </si>
-  <si>
-    <t>@carolaimeee ainda prefiro um airpods</t>
-  </si>
-  <si>
-    <t>@carolaimeee prefiro um airpods</t>
-  </si>
-  <si>
-    <t>cb boté el estuche de mis airpods im 😔</t>
-  </si>
-  <si>
-    <t>preciso de um airpods</t>
-  </si>
-  <si>
-    <t>@kaebcake eu aceitava os airpods e depois dava um chute na cara</t>
-  </si>
-  <si>
-    <t>acabei de ver nos recomendados do meu youtube um youtuber idiota que chega do lado e corta fones dos estranhos e dai dá airpods novos pra eles, nao sei se eu rio ou choro do ser humano</t>
-  </si>
-  <si>
-    <t>eduardo tentou colocar meu e-mail vendendo airpods na olx e foi tudo pro dele, e ainda censuraram meu instagram na postagem que ele fez. grande dia, karma is a bitch.</t>
-  </si>
-  <si>
-    <t>@avnerben10 olhei mas eu queria algo como os airpods só que mais barato kkk ai eu vi um tal de itw2 algo assim. comprei dois, saiu por 40 reais kkk</t>
-  </si>
-  <si>
-    <t>não vai ter eu ganhando um iphone 8 plus com um airpods(que deus escute as minhas orações)</t>
-  </si>
-  <si>
-    <t>alguém tem fone airdots ou réplica do airpods pra me relatar</t>
-  </si>
-  <si>
-    <t>quero meus airpods e meu apple watch logooo</t>
-  </si>
-  <si>
-    <t>os airpods carregam completamente só em 10 min wtffffffff</t>
-  </si>
-  <si>
-    <t>agora não sei se compro airpods ou fones normais a mesma</t>
-  </si>
-  <si>
-    <t>vou comprar uns acessórios pro celular e juntar pra comprar um airpods</t>
-  </si>
-  <si>
-    <t>as vezes eu to feliz aí eu escuto tu turu turum (som do airpods com pouca bateria) e fico triste</t>
-  </si>
-  <si>
-    <t>e hoje que a menina do meu setor começou a falar sobre fone de ouvido com meu chefe dai do nada ele tirou o airpods da bolsa dele e deu a ela 
-contador que chama né mores</t>
-  </si>
-  <si>
-    <t>queria entender pq a apple não fez a entrada pra fone do ouvido do iphone7 normal.... pqp meu fone original quebrou desde então já comprei outros 3 e não pega nessa poha... @apple entenda não é pq eu tenho um iphone que sou rica pra tá comprando o airpods original</t>
-  </si>
-  <si>
-    <t>só queria airpods, aff  https://t.co/an2nhpofee</t>
-  </si>
-  <si>
-    <t>esqueci de por os airpods para carregar aí ficou sem bateria na hora que eu sai do crossfit</t>
-  </si>
-  <si>
-    <t>já é a 2º vez que eu perco meu airpods</t>
-  </si>
-  <si>
-    <t>@avnerben10 foi uma versão chinesa dos airpods hihihih</t>
-  </si>
-  <si>
-    <t>hoje ia tranquilo no cais e passa um bacano com uns airpods a andar de trotinete mesmo no meio da estrada e a cantar “sai, sai, sai da minha frente” mas bué alto ahahahha</t>
-  </si>
-  <si>
-    <t>problema burguês do dia: perdi meu airpods e vou ter que usar o beats agora 🥺🥺</t>
-  </si>
-  <si>
-    <t>a apple quer me obrigar a comprar um airpods. não aguento esse celular só com uma entrada 😭😭😭</t>
-  </si>
-  <si>
-    <t>@mecagaskalife airpods x diadema: difícil de aterrizar</t>
-  </si>
-  <si>
-    <t>vei um lado do meu airpods tá quebrando</t>
-  </si>
-  <si>
-    <t>eu só quero meus airpods</t>
-  </si>
-  <si>
-    <t>@pocketbruno1 @dennicius não duvido nada, eu já acho um absurdo comprar um iphone da geração atual e não vir com um par de airpods, até parece q virá caneta kkkk</t>
-  </si>
-  <si>
-    <t>acabei de comprar os airpods, estou arrependido de não os ter comprado logo que saíram</t>
-  </si>
-  <si>
-    <t>mas porque é que eu pensei que uns airpods custavam 30€ ahahah</t>
-  </si>
-  <si>
-    <t>acho que vou vender os airpods por 600 conto..</t>
-  </si>
-  <si>
-    <t>a ganhadora dos airpods foi @simone_archanjo. parabéns! @netbet_brasil https://t.co/anxgkshutl</t>
-  </si>
-  <si>
-    <t>vem amigo vamos até a praça rir dos estudantes do marista q usam airpods</t>
-  </si>
-  <si>
-    <t>comprar meus airpods amanhã siii</t>
-  </si>
-  <si>
-    <t>ou um airpods por 700,00, o fone sem fio da apple, zeradin</t>
-  </si>
-  <si>
-    <t>esqueci meu telefone num caixa de supermercado..... 
-vieram atrás de mim para entregar. malditos airpods</t>
-  </si>
-  <si>
-    <t>queria só que o audio do microfone do airpods n fosse um lixo</t>
-  </si>
-  <si>
-    <t>tranformei airpods em 18k airgolds https://t.co/wbppwq11rg via @youtube</t>
-  </si>
-  <si>
-    <t>airpods valem a pena?</t>
-  </si>
-  <si>
-    <t>gabs: 
-eu: vc tem airpods?
-gabs: nn, vc acha q eu devia ter?
-eu: ue sla kk
-gabs: *aparece 2 dias dps com airpods*</t>
-  </si>
-  <si>
-    <t>me rendi, comprar outro airpods, merda</t>
-  </si>
-  <si>
-    <t>mas essa vossa moda de irem pras festas com os airpods n acaba?</t>
-  </si>
-  <si>
-    <t>deixei perder os meus airpods, outra vez</t>
-  </si>
-  <si>
-    <t>já vou lançar meu airpods</t>
-  </si>
-  <si>
-    <t>da dúvida se compro o apple watch ou o um airpods</t>
-  </si>
-  <si>
-    <t>da série “coisas que eu achava absolutamente a invenção mais imbecil da humanidade e agora aprendi a amar sem fronteiras”: airpods</t>
-  </si>
-  <si>
-    <t>um airpods 1000 reais ta ficando doido caralho</t>
-  </si>
-  <si>
-    <t>fone de ouvido bluetooth - i7 mini
-não perca mais tempo com fios. aproveite nossas novidades em #fonesdeouvido #bluetooth 
-acesse https://t.co/rtmjgkt4cl
-#mirao #distribuidora #descontoavista #fonebluetooth #i7 https://t.co/pf1eiendsd</t>
-  </si>
-  <si>
-    <t>avete le airpods? come vi trovate? pro? contro?</t>
-  </si>
-  <si>
-    <t>@caioquintas2 comprou o airpods ?</t>
-  </si>
-  <si>
-    <t>pa que comprar airpods piratas de 50$? nqv</t>
-  </si>
-  <si>
-    <t>falei pra minha mãe me dar um airpods, aí ela falou que é só cortar o fio do meu fone da apple que fica igual kkkkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@lucasbadziak me dá seus airpods</t>
-  </si>
-  <si>
-    <t>@hellerju cala a boca voce tem airpods</t>
-  </si>
-  <si>
-    <t>alguém que conheça quem venda apple airpods me chama pfv</t>
-  </si>
-  <si>
-    <t>vou desenrolar esses airpods com minha irmã kkk descobri agora que funciona com samsung tbm 🙂🙄🤦🏻‍♂️</t>
-  </si>
-  <si>
-    <t>airpods nunca te critiquei</t>
-  </si>
-  <si>
-    <t>@macmagazine @lgcribeiro olá pessoal.vcs tiveram sucesso em usar algum dos recursos a baixo do ios 13: 
--compartilhar musicas com amigos usando airpods
--compartilhar chegada com o mapas?
--localizar iphone offline?
-- siri ler mensagens quando estamos com fones
-eu tentei de tudo, e nada funcionou pra mim</t>
-  </si>
-  <si>
-    <t>airpods da natureza https://t.co/vm2ip70fe8</t>
-  </si>
-  <si>
-    <t>no salão da minha mãe toda a gente tem airpods menos eu😣</t>
-  </si>
-  <si>
-    <t>@juhhms ei!! não te conheço mas só pra falar q tenho o meu airpods há mais de 2 anos e ele nuncaaa caiu nem na acad nem quando eu danço nem nada kkkkkk só cai às vezes quando eu vou cumprimentar alguém com beijo na bochecha e a cabeça da pessoa esbarra nele</t>
-  </si>
-  <si>
-    <t>o airpods eh a melhor invenção de todas obrigada apple</t>
-  </si>
-  <si>
-    <t>mas apple, continua sendo apple 👀 https://t.co/dbcwy0vytr</t>
-  </si>
-  <si>
-    <t>pessoas que tem airpods, ele cai da orelha quando vcs suam/fazem exercicios? 
-é pro meu tcc</t>
-  </si>
-  <si>
-    <t>@marinazanluca cara dá pra comprar airpods parcelado com o dinheiro da manutenção</t>
-  </si>
-  <si>
-    <t>apple destaca airpods personalizados na coreia do sul. https://t.co/qvoz3qqmfx https://t.co/zdoohrm5wk</t>
-  </si>
-  <si>
-    <t>eu consegui fazer a proeza de perder meus airpods na escola pq tão burra</t>
-  </si>
-  <si>
-    <t>fala aeee pessoal da @macmagazine, ja viram esse cara banhando o airpods dele em ouro 18k, muito bom o trabalho do cara. #airgolds</t>
-  </si>
-  <si>
-    <t>eu só quero um airpods pra esconder de baixo do cabelo e ninguém ver q eu to de fone</t>
-  </si>
-  <si>
-    <t>só hoje eu descobri que vem um cabo dentro da caixa do airpods, meu jesus amado isso que dá não ser curioso</t>
-  </si>
-  <si>
-    <t>tava olhando outros tipos de fones sem fio mas aparentemente terei q comprar airpods mesmo pois todos os outros q vi ate agora são de enfiar até a alma do fone no ouvido detesto</t>
-  </si>
-  <si>
-    <t>gente pelo amor d deus eu preciso daqueles airpods p assistir friends durante essas aulas insuportáveis</t>
-  </si>
-  <si>
-    <t>não estou conseguindo carregar meus airpods mais que beleza</t>
-  </si>
-  <si>
-    <t>meu airpods já caiu tanto no chão que se ele parar de pegar do nada, eu não vou estranhar</t>
-  </si>
-  <si>
-    <t>bom jesus centro, a maior concentração de airpods por metro quadrado</t>
-  </si>
-  <si>
-    <t>abrindo a mochila e vendo que esqueci os airpods em casa https://t.co/zn8hnqiphm</t>
-  </si>
-  <si>
-    <t>agora to um nojo com meu airpods 😫</t>
-  </si>
-  <si>
-    <t>@fcprafa se não são das seguintes marcas não prestam
-beats
-airpods
-samsungbuds
-(não está por ordem embora toda a gente saiba que beats é em primeiro)</t>
-  </si>
-  <si>
-    <t>se tivesse airpods nunca os tirava dos ouvidos</t>
-  </si>
-  <si>
-    <t>a galera da minha escola tem airpods :0 me sentindo matutah</t>
-  </si>
-  <si>
-    <t>fone de ouvido - bluetooth - airpods
-por apenas 3x de r$ 39,97
-frete grátis
-06:00:01 02/09/2019 - https://t.co/pmpmikih6i</t>
-  </si>
-  <si>
-    <t>o logótipo da apple vai mudar no novo iphone e há uma razão para isso https://t.co/iytmmxrymf https://t.co/7wk4v5rnq1</t>
-  </si>
-  <si>
-    <t>meu white problem patrícia hoje é que perdi 1 airpods e nao sei o que fazer, quero chorar</t>
-  </si>
-  <si>
-    <t>quero um airpods 😞</t>
-  </si>
-  <si>
-    <t>@pzrkchaewon amigo mas eu to so q n quero mais normal preciso do airpods se vc souber um esquema</t>
-  </si>
-  <si>
-    <t>ouvir música em 8d com o airpods no volume máximo 🤤🤤</t>
-  </si>
-  <si>
-    <t>quero um airpods da apple</t>
-  </si>
-  <si>
-    <t>to vendendo uma capinha de airpods no mercado livre kkkkkkk devia ta dormindo</t>
-  </si>
-  <si>
-    <t>porra o airpods 2 foi a melhor compra q fiz em mt tempo</t>
-  </si>
-  <si>
-    <t>comprar um airpods e um play 4 e fica mec.</t>
-  </si>
-  <si>
-    <t>só queria uns airpods</t>
-  </si>
-  <si>
-    <t>airpods chato não descarrega nunca</t>
-  </si>
-  <si>
-    <t>eu qr mt  comprar um airpods mas to cm medo de comprar e o seventeen fzr show no bras</t>
-  </si>
-  <si>
-    <t>quase morri, achei q tinha perdido meu airpods</t>
-  </si>
-  <si>
-    <t>era só um airpods afff n aguento mais ter q deixar de ouvir música pra carregar o cel</t>
-  </si>
-  <si>
-    <t>ok que ele deu airpods depois mas ne k</t>
-  </si>
-  <si>
-    <t>acabei de perder um dos meus airpods. eu nunca quis tanto arrancar meus olhos com as mãos.</t>
-  </si>
-  <si>
-    <t>meus airpods vão chegar essa semana finalmene</t>
-  </si>
-  <si>
-    <t>pqp o cara fez um airpods de ouro maciço  mano do céu https://t.co/wiqx6ytmjg</t>
-  </si>
-  <si>
-    <t>fone samsung supera apple com som mais potente e menor preço https://t.co/mer7rxnrhz</t>
-  </si>
-  <si>
-    <t>queria ver se pegava uns airpods novos</t>
-  </si>
-  <si>
-    <t>airpods é a melhor coisa que já inventaram pqp</t>
-  </si>
-  <si>
-    <t>mal receber vou buscar os airpods fds</t>
-  </si>
-  <si>
-    <t>terminal 3 do aeroporto de guarulhos maior concentração de airpods por m2</t>
-  </si>
-  <si>
-    <t>quero airpods da xiaomi capitalismo pq me influenciastes mais um dia para ficar querendo besteira</t>
-  </si>
-  <si>
-    <t>chocada que airpods ta 1600 no brasil e aqui achei por 160 na amazon, comprei mas eh claro</t>
-  </si>
-  <si>
-    <t>primeiro tombo do meu airpods na rua 💔 e já riscou, sofro</t>
-  </si>
-  <si>
-    <t>aposto que estes cães têm airpods https://t.co/vukwectots</t>
-  </si>
-  <si>
-    <t>e o boff que trocou sem querer os nossos airpods 🤦🏼‍♀️</t>
-  </si>
-  <si>
-    <t>caraca se tem uma coisa que me irrita é quando meu fone de ouvido fica todo embolado, não vejo a hora dos meus airpods chegarem 😩</t>
-  </si>
-  <si>
-    <t>meu pai pegou meu airpods e falou “tem um fio dental aqui perdido” kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@cross_gp o cara tem airpods de ouro
-https://t.co/mhyvgzuwnx</t>
-  </si>
-  <si>
-    <t>eu queria comprar aquele fone sem fio da huawei que é quase igual um airpods, só que é bem mais barato kkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>o miojo sem sachê 🤝 fio para airpods 
-piores invenções do capitalismo</t>
-  </si>
-  <si>
-    <t>@figliadi1putana meu airpods by xiaomi as vezes tem uma perca de sinal, essa collab da apple e xiaomi viu</t>
-  </si>
-  <si>
-    <t>de 10 pessoas que eu vejo na rua, no mínimo 6 estão usando airpods. desde quando essa joça ficou barata?</t>
-  </si>
-  <si>
-    <t>muita gente com airpods no #mercadodacomida porquê?? nesse barulho todo 😕</t>
-  </si>
-  <si>
-    <t>mais uma da saga perdi meu airpods em casa</t>
-  </si>
-  <si>
-    <t>@jardelsallez recomendo botar um cabo no airpods p num perder</t>
-  </si>
-  <si>
-    <t>eu e airpods</t>
-  </si>
-  <si>
-    <t>@mengaorcomics @naoestive o joão de deus usa tb (nem sempre) mas é um airpods (o sem fio) e um normal da apple com fio. esse aí só faz pra se aparecer msm, pqp.
-se bem que hj pode ser necessário, pq o felipão na entrevista antes do jogo não conseguia ouvir o repórter por causa da torcida hahahaahha</t>
-  </si>
-  <si>
-    <t>não vai ter eu ganhando um airpods https://t.co/mmtkutkrnh</t>
-  </si>
-  <si>
-    <t>quero tanto uns airpods eit</t>
-  </si>
-  <si>
-    <t>acabei de ficar quase 12 minutos vendo um video de um cara transformar airpods normais em airpods de ouro.</t>
-  </si>
-  <si>
-    <t>airpods foram o melhor investimento de smp</t>
-  </si>
-  <si>
-    <t>huawei prepara-se para combater os airpods com os novos freebuds https://t.co/aki5acmdbg https://t.co/xqgrsw984y</t>
-  </si>
-  <si>
-    <t>o airpods pqp euuuuuu https://t.co/iijeout5lj</t>
-  </si>
-  <si>
-    <t>apple prepara iphone pro com foco em câmeras, novos ipads, airpods, macbook e muito mais; confira
-https://t.co/iimokxstfr</t>
-  </si>
-  <si>
-    <t>guardando meu dinheiro pra comprar um airpods</t>
-  </si>
-  <si>
-    <t>queria tanto um airpods, esse fone resolveria todos os meu problemas</t>
-  </si>
-  <si>
-    <t>na última atualização do ios 13, agora aparece o desenho dos airpods no controle de volume. tão bonitinho https://t.co/sto2jj96m9</t>
-  </si>
-  <si>
-    <t>@euisabellyy me dar esse airpods aí kkkkk</t>
-  </si>
-  <si>
-    <t>tava vendo o video de um cara fazendo airpods dourado. quero isso no meu pra ontem</t>
-  </si>
-  <si>
-    <t>vovó patrocinou airpods 😍</t>
-  </si>
-  <si>
-    <t>perdi meu airpods pqp</t>
-  </si>
-  <si>
-    <t>vendo capa preta de silicone para airpods-mais info dm📩</t>
-  </si>
-  <si>
-    <t>@sailor_boo eu vo te dar airpods xiu</t>
-  </si>
-  <si>
-    <t>gente vo comprar um airpods me rendi a essa caralho dps que meu fone quebrou pela 5278282929 vez</t>
-  </si>
-  <si>
-    <t>comprei meus airpods</t>
-  </si>
-  <si>
-    <t>comprei uns airpods, sai fiquei arrependido 😂</t>
-  </si>
-  <si>
-    <t>ir ao mac , deixar os airpods em cima do tabuleiro e o meu pai ter a gentilesa de arrumar o tabuleiro foi do caralho #
-resultado foram uns airpods c crlh :(</t>
-  </si>
-  <si>
-    <t>#insónias nem dinheiro para uns airpods já tem #thecriseisreal :/
-(📸: @bystpt) 
-#freeinsónias @insoniascarvao https://t.co/qjsxpqvmrb</t>
-  </si>
-  <si>
-    <t>homens heteros e porque se sentem na obrigação de tirar foto com seus airpods hoje no animal planet</t>
-  </si>
-  <si>
-    <t>@bystpt @insoniascarvao não se pusesse a comprar airpods...mesmo à novo rico.</t>
-  </si>
-  <si>
-    <t>airpods com case de recarga sem fio por $133. 😱 https://t.co/dabpopnjo0</t>
-  </si>
-  <si>
-    <t>acho que è bug do @spotify , por q acabei de testar em outro app e funcionou perfeitamente , tanto o app quanto o sensor do airpods</t>
-  </si>
-  <si>
-    <t>eu so quero q meus airpods cheguem logooooooo</t>
-  </si>
-  <si>
-    <t>mais alguem ae ta tendo problema com os airpods ? o meu nao ta funcionando o sensor , queria saber se è so o meu...</t>
-  </si>
-  <si>
-    <t>liked on youtube: review: powerbeats pro é o substituto dos airpods para os ávidos esportistas https://t.co/3w9lrtmmw2</t>
-  </si>
-  <si>
-    <t>to doido pra comprar o airpods viu</t>
-  </si>
-  <si>
-    <t>lá na korea, a #apple apresenta os famosos airpods com caixinhas customizadas. ainda não se sabe ao certo se é uma promo de terceiros ou uma venda que será realizada pela própria empresa. #behaviordesigner #neuromarekting #marketing #healthcare #gestaodepessoas #futuro https://t.co/jwt3vzu5ax</t>
-  </si>
-  <si>
-    <t>@gbeneduzzi mano eu ainda to mto chocada tipo é um airpods véi</t>
-  </si>
-  <si>
-    <t>@juninhovenicio1 só faltou o airpods</t>
-  </si>
-  <si>
-    <t>um dos meus airpods tá fzd barulho estranho se quebrou fodeu p mim</t>
-  </si>
-  <si>
-    <t>vou dar flex com os meus airpods comprados numa loja chinesa???
-sim eu vou https://t.co/zh5q1ylhhd</t>
-  </si>
-  <si>
-    <t>@_iconedopop vale mais comprar essa outra coisa etc
-ele é um ótimo acessório, mas não é tipo airpods que vc vai sentir falta de não usar..sabe?
-ele vai te ajudar bem a ver hora, trocar de música, track desempenho físico mas de resto as features dele vc vai usar menos</t>
-  </si>
-  <si>
-    <t>tenho é de comprar uns airpods</t>
-  </si>
-  <si>
-    <t>ps4 pro/slim $150 dm! #airpods #iphone #android10 #oneplus7pro #48mpandroidone   #applepay #apple #ipad #rt #samsung #ps4 #game #playstation #ps5 #realme5pro #xbox #xboxgc #xboxonex #ipadpro #ipadair #ipadair2019 #iphonexsmax #iphone11 #iphonex #iphonexr #macbookpro #macbookair https://t.co/q76ud0yo2x</t>
-  </si>
-  <si>
-    <t>funda para airpods solo 0,5€ https://t.co/gv3lboienf https://t.co/xjyzj9qc9a</t>
-  </si>
-  <si>
-    <t>@maaatyyy para o mesmo sítio dos airpods? 🤭</t>
-  </si>
-  <si>
-    <t>quero mt um airpods</t>
-  </si>
-  <si>
-    <t>@iampopzone os airpods</t>
-  </si>
-  <si>
-    <t>só depois de sair de casa percebi que n trouxe os airpods</t>
-  </si>
-  <si>
-    <t>sonhinho de consumo juntar dinheiro pra um macbook, um apple watch e um airpods</t>
-  </si>
-  <si>
-    <t>mas qual é a vossa de usarem airpods numa festa que tem música nas colunas??</t>
-  </si>
-  <si>
-    <t>queria sla, só um iphone xr e airpods</t>
-  </si>
-  <si>
-    <t>airpods pq tao caros</t>
-  </si>
-  <si>
-    <t>af usar airpods no notebook windows é muito blé, será que é assim no mac também?</t>
-  </si>
-  <si>
-    <t>é oficial perdi os airpods</t>
-  </si>
-  <si>
-    <t>airpods em ouro 18 k...      trabalho fantástico https://t.co/bq3njqscui</t>
-  </si>
-  <si>
-    <t>@fiercemajeure the airpods sksksksksks</t>
-  </si>
-  <si>
-    <t>trabalhar muito pra comprar meus airpods</t>
-  </si>
-  <si>
-    <t>gente o menino falando que a vida dele eh muito difícil pq ele queria muito um airpods e ele aparecendo no outro dia com um kk</t>
-  </si>
-  <si>
-    <t>eu vou roubar aql airpods do davi e se ele reclamar vai ser pior</t>
-  </si>
-  <si>
-    <t>@lucasgauterie eu sonho em ter um airpods af</t>
-  </si>
-  <si>
-    <t>era só um airpods na minha vida</t>
-  </si>
-  <si>
-    <t>uma das minhas melhores aquisições foi o airpods na moral</t>
-  </si>
-  <si>
-    <t>eu - “mãe comprei os novos airpods”
-mãe - “quanto?” 
-eu - “175 dólares”
-mãe - “ o que??? meu deus lucas 700 reias num fone???”
-3 semanas depois...
-mãe - “lucas compra um fone desse pra mim por favor obrigada...”</t>
-  </si>
-  <si>
-    <t>ouvi dizer q airpods dao cancer???? natural selection against capitalism??</t>
-  </si>
-  <si>
-    <t>ganhei um airpods do meu pai sem pedir 😍😍😍😍😍🤘🏾🤘🏾 amo um pai ❤️😍😍🤘🏾🤘🏾❤️❤️😍</t>
-  </si>
-  <si>
-    <t>@apyus o medo constante de perder a caixinha ou os meus airpods.</t>
-  </si>
-  <si>
-    <t>acha q airpods valem o q custam? pode falar o q acha deles? — eu gosto viu uso todos os dias pra mim valeu a pena sim https://t.co/npevd9vzl9</t>
-  </si>
-  <si>
-    <t>chegouuuuuu a case do meu airpods e cara ficou muito lindoooooo</t>
-  </si>
-  <si>
-    <t>pq a porra desse airpods ta fazendo isso kkkk</t>
-  </si>
-  <si>
-    <t>felizona com meus airpods</t>
-  </si>
-  <si>
-    <t>mas como é que se vê a bateria dos airpods caralho</t>
-  </si>
-  <si>
-    <t>mano eu preciso ir na balada aqui de airpods curtir um bailinho</t>
-  </si>
-  <si>
-    <t>eu quero mtt um airpods.. arrependida dms d nn ter comprado na viagem afff</t>
-  </si>
-  <si>
-    <t>minha mãe faz merda (comprou meu álbum de fotos da formatura do 9° ano, que eu não queria, chorei p ela n comprar e ela tava um fds) eu fico putassa e ela vem querendo me agradar falando que vai me dar um airpods, vai lavar a casa da cachorra né</t>
-  </si>
-  <si>
-    <t>hoje sai sem meus airpods q loucura</t>
-  </si>
-  <si>
-    <t>comprei o airpods</t>
-  </si>
-  <si>
-    <t>@vulgov1ctor cara o meu medo é so pq eu nunca gostei de fone de borrachinha pq sempre caía do meu ouvido, sempre preferi fone c formato do airpods mas n vo pagar um airpods ate pq nem iphone eu tenho, mas ai to c medo de comprar esses in ear sem fio e n gostar tb :///</t>
-  </si>
-  <si>
-    <t>ganhei um airpods falso que fica piscando azul
-mano..... pq bota uma porra q fica piscando, se n tivesse essa luz seria pfto funciona bem e tudo mais</t>
-  </si>
-  <si>
-    <t>não sei como minha caixinha do airpods não quebrou até hoje</t>
+    <t>Relavante</t>
+  </si>
+  <si>
+    <t>Relevante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3152,22 +2465,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3209,7 +2531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3241,9 +2563,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3275,6 +2615,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3450,2516 +2808,4023 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="122.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="Q1" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="B453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="B454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="B458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="B476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="B483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="B484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="B496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="B497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="B498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="B499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>498</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5968,2361 +6833,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A470"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="121.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
-        <v>964</v>
+      <c r="B250">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
